--- a/ArchitectureDossier/spreadsheets/Architecture-NonFunctionalRequiremetns_v01.00.xlsx
+++ b/ArchitectureDossier/spreadsheets/Architecture-NonFunctionalRequiremetns_v01.00.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvain/Repositories/Public/ArchitectureTemplate/ArchitectureDossier/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF8862E-AAB8-E740-97E0-B7D4ACD57E8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73046E57-79E7-BF4C-8513-BA3FE1E9E713}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="33600" windowHeight="19120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="00 - Technical Parameter" sheetId="4" r:id="rId1"/>
@@ -23,6 +23,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'00 - Technical Parameter'!$B$5:$F$57</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'02-NONFUNCTIONALREQUIREMENTS'!$A$3:$B$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'03-Markdown'!$B$5:$B$110</definedName>
     <definedName name="AREA">'00 - Technical Parameter'!$D$6:$D$57</definedName>
     <definedName name="CATEGORY">'00 - Technical Parameter'!#REF!</definedName>
     <definedName name="CRITICITY">'00 - Technical Parameter'!$H$6:$H$10</definedName>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="115">
   <si>
     <t>Prefix</t>
   </si>
@@ -149,30 +150,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Origine</t>
-  </si>
-  <si>
-    <t>Criticité</t>
-  </si>
-  <si>
-    <t>OBLIGATOIRE</t>
-  </si>
-  <si>
-    <t>OPTIONNEL</t>
-  </si>
-  <si>
-    <t>Hypothèse</t>
-  </si>
-  <si>
-    <t>permettre l'affichage de ses écrans WEB avec une résolution minimale de 1024*768</t>
-  </si>
-  <si>
-    <t>permettre l'affichage de ses écrans WEB dans une approche "responsive" permettant la gestion des orientations 'Tablette'</t>
-  </si>
-  <si>
-    <t>afficher l'ensemble des labels de ses interfaces en **français** par défaut</t>
-  </si>
-  <si>
     <t>stocker et afficher les éléments journalisés sur la plateforme en **anglais**</t>
   </si>
   <si>
@@ -188,9 +165,6 @@
     <t>Standards</t>
   </si>
   <si>
-    <t>ESSENTIEL</t>
-  </si>
-  <si>
     <t>doit être localisé en Union Européenne</t>
   </si>
   <si>
@@ -227,15 +201,6 @@
     <t>programmer des plages de maintenance d'une durée de 4h par mois</t>
   </si>
   <si>
-    <t>doit implémenter une chaine d'intégration et de déploiement continue (DEVOPS - CI/CD)afin de permettre un temps de mise sur le marché (TTM) optimisé.</t>
-  </si>
-  <si>
-    <t>permettre la ségrégation des données par client ("Multi-tenant")</t>
-  </si>
-  <si>
-    <t>permettre l'affichage des labels de ses interfaces dans d'autres langues (Right-To-Left) au moyen du chargement d'un fichier de configuration sur le serveur, selon la configuration du navigateur appelant.</t>
-  </si>
-  <si>
     <t>faciliter la portabilité de la solution vers différents systèmes d'hébergement (Fournisseur Cloud, Sur site)</t>
   </si>
   <si>
@@ -257,9 +222,6 @@
     <t>journaliser les évènements 'métier' (opérations sur les données) à des fins de traçabilité</t>
   </si>
   <si>
-    <t>Exigences non fonctionnelles</t>
-  </si>
-  <si>
     <t>Categorie</t>
   </si>
   <si>
@@ -269,276 +231,6 @@
     <t>reposer sur le protocole https (Combinaison entre HTTP et un protocole de chiffrement) pour opérer ses échanges entre les clients et le serveur.</t>
   </si>
   <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>002</t>
-  </si>
-  <si>
-    <t>003</t>
-  </si>
-  <si>
-    <t>004</t>
-  </si>
-  <si>
-    <t>005</t>
-  </si>
-  <si>
-    <t>006</t>
-  </si>
-  <si>
-    <t>007</t>
-  </si>
-  <si>
-    <t>008</t>
-  </si>
-  <si>
-    <t>009</t>
-  </si>
-  <si>
-    <t>010</t>
-  </si>
-  <si>
-    <t>011</t>
-  </si>
-  <si>
-    <t>012</t>
-  </si>
-  <si>
-    <t>013</t>
-  </si>
-  <si>
-    <t>014</t>
-  </si>
-  <si>
-    <t>015</t>
-  </si>
-  <si>
-    <t>016</t>
-  </si>
-  <si>
-    <t>017</t>
-  </si>
-  <si>
-    <t>018</t>
-  </si>
-  <si>
-    <t>019</t>
-  </si>
-  <si>
-    <t>020</t>
-  </si>
-  <si>
-    <t>021</t>
-  </si>
-  <si>
-    <t>022</t>
-  </si>
-  <si>
-    <t>023</t>
-  </si>
-  <si>
-    <t>024</t>
-  </si>
-  <si>
-    <t>025</t>
-  </si>
-  <si>
-    <t>026</t>
-  </si>
-  <si>
-    <t>027</t>
-  </si>
-  <si>
-    <t>028</t>
-  </si>
-  <si>
-    <t>029</t>
-  </si>
-  <si>
-    <t>030</t>
-  </si>
-  <si>
-    <t>031</t>
-  </si>
-  <si>
-    <t>032</t>
-  </si>
-  <si>
-    <t>033</t>
-  </si>
-  <si>
-    <t>034</t>
-  </si>
-  <si>
-    <t>035</t>
-  </si>
-  <si>
-    <t>036</t>
-  </si>
-  <si>
-    <t>037</t>
-  </si>
-  <si>
-    <t>038</t>
-  </si>
-  <si>
-    <t>039</t>
-  </si>
-  <si>
-    <t>040</t>
-  </si>
-  <si>
-    <t>041</t>
-  </si>
-  <si>
-    <t>043</t>
-  </si>
-  <si>
-    <t>044</t>
-  </si>
-  <si>
-    <t>045</t>
-  </si>
-  <si>
-    <t>046</t>
-  </si>
-  <si>
-    <t>047</t>
-  </si>
-  <si>
-    <t>048</t>
-  </si>
-  <si>
-    <t>049</t>
-  </si>
-  <si>
-    <t>050</t>
-  </si>
-  <si>
-    <t>051</t>
-  </si>
-  <si>
-    <t>052</t>
-  </si>
-  <si>
-    <t>053</t>
-  </si>
-  <si>
-    <t>054</t>
-  </si>
-  <si>
-    <t>055</t>
-  </si>
-  <si>
-    <t>056</t>
-  </si>
-  <si>
-    <t>057</t>
-  </si>
-  <si>
-    <t>058</t>
-  </si>
-  <si>
-    <t>059</t>
-  </si>
-  <si>
-    <t>060</t>
-  </si>
-  <si>
-    <t>061</t>
-  </si>
-  <si>
-    <t>062</t>
-  </si>
-  <si>
-    <t>063</t>
-  </si>
-  <si>
-    <t>064</t>
-  </si>
-  <si>
-    <t>065</t>
-  </si>
-  <si>
-    <t>066</t>
-  </si>
-  <si>
-    <t>067</t>
-  </si>
-  <si>
-    <t>068</t>
-  </si>
-  <si>
-    <t>069</t>
-  </si>
-  <si>
-    <t>070</t>
-  </si>
-  <si>
-    <t>071</t>
-  </si>
-  <si>
-    <t>072</t>
-  </si>
-  <si>
-    <t>073</t>
-  </si>
-  <si>
-    <t>074</t>
-  </si>
-  <si>
-    <t>075</t>
-  </si>
-  <si>
-    <t>076</t>
-  </si>
-  <si>
-    <t>077</t>
-  </si>
-  <si>
-    <t>078</t>
-  </si>
-  <si>
-    <t>079</t>
-  </si>
-  <si>
-    <t>080</t>
-  </si>
-  <si>
-    <t>081</t>
-  </si>
-  <si>
-    <t>082</t>
-  </si>
-  <si>
-    <t>083</t>
-  </si>
-  <si>
-    <t>084</t>
-  </si>
-  <si>
-    <t>085</t>
-  </si>
-  <si>
-    <t>086</t>
-  </si>
-  <si>
-    <t>087</t>
-  </si>
-  <si>
-    <t>088</t>
-  </si>
-  <si>
-    <t>être testé avec un affichage de ses écrans WEB avec le navigateur **Safari** Version 12 sur MacOs Mojave.</t>
-  </si>
-  <si>
-    <t>être testé avec un affichage de ses écrans WEB avec le navigateur **Firefox** Version 68 sur Windows 10  (64 Bits).</t>
-  </si>
-  <si>
-    <t>permettre l'affichage de ses écrans WEB avec le navigateur **Chrome** Version 75.0. sur Windows 10  (64 Bits).</t>
-  </si>
-  <si>
     <t>proposer une plage de service remontant une disponibilité  correspondant a un SLA de 99.9% en dehors des interruptions pour maintenance programmée</t>
   </si>
   <si>
@@ -663,6 +355,45 @@
   </si>
   <si>
     <t>The system</t>
+  </si>
+  <si>
+    <t>Non Functional requirements</t>
+  </si>
+  <si>
+    <t>Assumption</t>
+  </si>
+  <si>
+    <t>must implement a continuous integration and deployment chain (DEVOPS - CI / CD) in order to allow optimized time to market (TTM).</t>
+  </si>
+  <si>
+    <t>allow the display of its WEB screens with a minimum resolution of 1024 * 768</t>
+  </si>
+  <si>
+    <t>allow the display of its WEB screens with the browser ** Chrome ** Version 75.0. on Windows 10 (64 Bits).</t>
+  </si>
+  <si>
+    <t>be tested with a display of its WEB screens with the browser ** Firefox ** Version 68 on Windows 10 (64 Bits).</t>
+  </si>
+  <si>
+    <t>be tested with a display of its WEB screens with the browser ** Safari ** Version 12 on MacOs Mojave.</t>
+  </si>
+  <si>
+    <t>allow the display of its WEB screens in a "responsive" approach allowing the management of 'Tablet' orientations</t>
+  </si>
+  <si>
+    <t>allow data segregation by client ("Multi-tenant")</t>
+  </si>
+  <si>
+    <t>display all labels of its interfaces in ** French ** by default</t>
+  </si>
+  <si>
+    <t>allow the display of the labels of its interfaces in other languages(Right-To-Left) by loading a configuration file on the server, depending on the configuration of the calling browser.</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>FILTER</t>
   </si>
 </sst>
 </file>
@@ -1890,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -1906,33 +1637,33 @@
         <v>16</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>185</v>
+        <v>82</v>
       </c>
       <c r="E5" s="35" t="s">
         <v>31</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="H5" s="40" t="s">
-        <v>186</v>
+        <v>83</v>
       </c>
       <c r="J5" s="64" t="s">
-        <v>203</v>
+        <v>100</v>
       </c>
       <c r="K5" t="s">
-        <v>204</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B6" s="10" t="s">
-        <v>194</v>
+        <v>91</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>197</v>
+        <v>94</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>184</v>
+        <v>81</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>20</v>
@@ -1942,18 +1673,18 @@
         <v>Quality\Execution\Accessibility</v>
       </c>
       <c r="H6" s="41" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="10" t="s">
-        <v>194</v>
+        <v>91</v>
       </c>
       <c r="C7" s="57" t="s">
-        <v>197</v>
+        <v>94</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>183</v>
+        <v>80</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>18</v>
@@ -1963,7 +1694,7 @@
         <v>Quality\Execution\Capacity</v>
       </c>
       <c r="H7" s="42" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -1971,10 +1702,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>199</v>
+        <v>96</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>182</v>
+        <v>79</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>23</v>
@@ -1984,21 +1715,21 @@
         <v>Contrainte\Business\Corporate</v>
       </c>
       <c r="H8" s="42" t="s">
-        <v>169</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" s="10" t="s">
-        <v>194</v>
+        <v>91</v>
       </c>
       <c r="C9" s="57" t="s">
-        <v>197</v>
+        <v>94</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>181</v>
+        <v>78</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>187</v>
+        <v>84</v>
       </c>
       <c r="F9" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2011,10 +1742,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>196</v>
+        <v>93</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>26</v>
@@ -2027,16 +1758,16 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="s">
-        <v>194</v>
+        <v>91</v>
       </c>
       <c r="C11" s="57" t="s">
-        <v>197</v>
+        <v>94</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>179</v>
+        <v>76</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>188</v>
+        <v>85</v>
       </c>
       <c r="F11" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2048,13 +1779,13 @@
         <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>196</v>
+        <v>93</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>178</v>
+        <v>75</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>189</v>
+        <v>86</v>
       </c>
       <c r="F12" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2063,16 +1794,16 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" s="10" t="s">
-        <v>194</v>
+        <v>91</v>
       </c>
       <c r="C13" s="57" t="s">
-        <v>197</v>
+        <v>94</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>177</v>
+        <v>74</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>190</v>
+        <v>87</v>
       </c>
       <c r="F13" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2084,7 +1815,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>196</v>
+        <v>93</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>15</v>
@@ -2102,13 +1833,13 @@
         <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>199</v>
+        <v>96</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>176</v>
+        <v>73</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>191</v>
+        <v>88</v>
       </c>
       <c r="F15" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2117,16 +1848,16 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" s="10" t="s">
-        <v>194</v>
+        <v>91</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>171</v>
+        <v>68</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F16" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2135,13 +1866,13 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="10" t="s">
-        <v>194</v>
+        <v>91</v>
       </c>
       <c r="C17" s="57" t="s">
-        <v>197</v>
+        <v>94</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>170</v>
+        <v>67</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>19</v>
@@ -2153,10 +1884,10 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="10" t="s">
-        <v>194</v>
+        <v>91</v>
       </c>
       <c r="C18" s="57" t="s">
-        <v>197</v>
+        <v>94</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>7</v>
@@ -2171,13 +1902,13 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="10" t="s">
-        <v>194</v>
+        <v>91</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>172</v>
+        <v>69</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>22</v>
@@ -2189,16 +1920,16 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="10" t="s">
-        <v>194</v>
+        <v>91</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>173</v>
+        <v>70</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>192</v>
+        <v>89</v>
       </c>
       <c r="F20" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2207,13 +1938,13 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="10" t="s">
-        <v>194</v>
+        <v>91</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>174</v>
+        <v>71</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>21</v>
@@ -2225,16 +1956,16 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="10" t="s">
-        <v>194</v>
+        <v>91</v>
       </c>
       <c r="C22" s="57" t="s">
-        <v>197</v>
+        <v>94</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>175</v>
+        <v>72</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>193</v>
+        <v>90</v>
       </c>
       <c r="F22" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2243,13 +1974,13 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="10" t="s">
-        <v>195</v>
+        <v>92</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>196</v>
+        <v>93</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>24</v>
@@ -2261,16 +1992,16 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="56" t="s">
-        <v>194</v>
+        <v>91</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>197</v>
+        <v>94</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>198</v>
+        <v>95</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F24" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2621,14 +2352,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="G1" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView showRuler="0" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1:J1048576"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="20" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="20" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" style="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2.5" style="22" customWidth="1"/>
     <col min="4" max="4" width="26.83203125" style="23" hidden="1" customWidth="1"/>
@@ -2639,12 +2370,12 @@
     <col min="10" max="16384" width="8.83203125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="19" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="19" customFormat="1" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>31</v>
       </c>
@@ -2677,19 +2408,19 @@
         <v>32</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="H3" s="37" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="I3" s="28"/>
     </row>
-    <row r="4" spans="1:9" ht="37" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
-        <v>73</v>
+    <row r="4" spans="1:9" ht="25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="29">
+        <v>1</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>170</v>
+        <v>67</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="49" t="str">
@@ -2698,25 +2429,26 @@
       </c>
       <c r="E4" s="33" t="str">
         <f>IF(B4="","",'00 - Technical Parameter'!$B$3&amp;"_"&amp;$B$2&amp;"_"&amp;A4)</f>
-        <v>PREFIX_NFR_001</v>
+        <v>PREFIX_NFR_1</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="H4" s="38" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="I4" s="34"/>
     </row>
     <row r="5" spans="1:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
-        <v>74</v>
+      <c r="A5" s="29">
+        <f>A4+1</f>
+        <v>2</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>198</v>
+        <v>95</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="49" t="str">
@@ -2725,25 +2457,26 @@
       </c>
       <c r="E5" s="33" t="str">
         <f>IF(B5="","",'00 - Technical Parameter'!$B$3&amp;"_"&amp;$B$2&amp;"_"&amp;A5)</f>
-        <v>PREFIX_NFR_002</v>
+        <v>PREFIX_NFR_2</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="H5" s="38" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="I5" s="34"/>
     </row>
     <row r="6" spans="1:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
-        <v>75</v>
+      <c r="A6" s="29">
+        <f t="shared" ref="A6:A69" si="0">A5+1</f>
+        <v>3</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>198</v>
+        <v>95</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="49" t="str">
@@ -2752,25 +2485,26 @@
       </c>
       <c r="E6" s="33" t="str">
         <f>IF(B6="","",'00 - Technical Parameter'!$B$3&amp;"_"&amp;$B$2&amp;"_"&amp;A6)</f>
-        <v>PREFIX_NFR_003</v>
+        <v>PREFIX_NFR_3</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="I6" s="34"/>
     </row>
     <row r="7" spans="1:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="A7" s="29" t="s">
-        <v>76</v>
+      <c r="A7" s="29">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>198</v>
+        <v>95</v>
       </c>
       <c r="C7" s="30"/>
       <c r="D7" s="49" t="str">
@@ -2779,25 +2513,26 @@
       </c>
       <c r="E7" s="33" t="str">
         <f>IF(B7="","",'00 - Technical Parameter'!$B$3&amp;"_"&amp;$B$2&amp;"_"&amp;A7)</f>
-        <v>PREFIX_NFR_004</v>
+        <v>PREFIX_NFR_4</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>161</v>
+        <v>107</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
-        <v>77</v>
+      <c r="A8" s="29">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>198</v>
+        <v>95</v>
       </c>
       <c r="C8" s="30"/>
       <c r="D8" s="49" t="str">
@@ -2806,25 +2541,26 @@
       </c>
       <c r="E8" s="33" t="str">
         <f>IF(B8="","",'00 - Technical Parameter'!$B$3&amp;"_"&amp;$B$2&amp;"_"&amp;A8)</f>
-        <v>PREFIX_NFR_005</v>
+        <v>PREFIX_NFR_5</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="I8" s="34"/>
     </row>
     <row r="9" spans="1:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="A9" s="29" t="s">
-        <v>78</v>
+      <c r="A9" s="29">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>198</v>
+        <v>95</v>
       </c>
       <c r="C9" s="30"/>
       <c r="D9" s="49" t="str">
@@ -2833,25 +2569,26 @@
       </c>
       <c r="E9" s="33" t="str">
         <f>IF(B9="","",'00 - Technical Parameter'!$B$3&amp;"_"&amp;$B$2&amp;"_"&amp;A9)</f>
-        <v>PREFIX_NFR_006</v>
+        <v>PREFIX_NFR_6</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="H9" s="38" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="I9" s="34"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="29" t="s">
-        <v>79</v>
+      <c r="A10" s="29">
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>177</v>
+        <v>74</v>
       </c>
       <c r="C10" s="30"/>
       <c r="D10" s="49" t="str">
@@ -2860,22 +2597,23 @@
       </c>
       <c r="E10" s="33" t="str">
         <f>IF(B10="","",'00 - Technical Parameter'!$B$3&amp;"_"&amp;$B$2&amp;"_"&amp;A10)</f>
-        <v>PREFIX_NFR_007</v>
+        <v>PREFIX_NFR_7</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="H10" s="38" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="I10" s="34"/>
     </row>
     <row r="11" spans="1:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="A11" s="29" t="s">
-        <v>80</v>
+      <c r="A11" s="29">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="B11" s="48" t="s">
         <v>15</v>
@@ -2887,22 +2625,23 @@
       </c>
       <c r="E11" s="33" t="str">
         <f>IF(B11="","",'00 - Technical Parameter'!$B$3&amp;"_"&amp;$B$2&amp;"_"&amp;A11)</f>
-        <v>PREFIX_NFR_008</v>
+        <v>PREFIX_NFR_8</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="I11" s="34"/>
     </row>
     <row r="12" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A12" s="29" t="s">
-        <v>81</v>
+      <c r="A12" s="29">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="B12" s="48" t="s">
         <v>15</v>
@@ -2914,22 +2653,23 @@
       </c>
       <c r="E12" s="33" t="str">
         <f>IF(B12="","",'00 - Technical Parameter'!$B$3&amp;"_"&amp;$B$2&amp;"_"&amp;A12)</f>
-        <v>PREFIX_NFR_009</v>
+        <v>PREFIX_NFR_9</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="I12" s="34"/>
     </row>
     <row r="13" spans="1:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="A13" s="29" t="s">
-        <v>82</v>
+      <c r="A13" s="29">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="B13" s="48" t="s">
         <v>15</v>
@@ -2941,25 +2681,26 @@
       </c>
       <c r="E13" s="33" t="str">
         <f>IF(B13="","",'00 - Technical Parameter'!$B$3&amp;"_"&amp;$B$2&amp;"_"&amp;A13)</f>
-        <v>PREFIX_NFR_010</v>
+        <v>PREFIX_NFR_10</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="H13" s="38" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="I13" s="34"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="29" t="s">
-        <v>83</v>
+      <c r="A14" s="29">
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>177</v>
+        <v>74</v>
       </c>
       <c r="C14" s="30"/>
       <c r="D14" s="49" t="str">
@@ -2968,25 +2709,26 @@
       </c>
       <c r="E14" s="33" t="str">
         <f>IF(B14="","",'00 - Technical Parameter'!$B$3&amp;"_"&amp;$B$2&amp;"_"&amp;A14)</f>
-        <v>PREFIX_NFR_011</v>
+        <v>PREFIX_NFR_11</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G14" s="32" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="I14" s="34"/>
     </row>
     <row r="15" spans="1:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="A15" s="29" t="s">
-        <v>84</v>
+      <c r="A15" s="29">
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>198</v>
+        <v>95</v>
       </c>
       <c r="C15" s="30"/>
       <c r="D15" s="49" t="str">
@@ -2995,22 +2737,23 @@
       </c>
       <c r="E15" s="33" t="str">
         <f>IF(B15="","",'00 - Technical Parameter'!$B$3&amp;"_"&amp;$B$2&amp;"_"&amp;A15)</f>
-        <v>PREFIX_NFR_012</v>
+        <v>PREFIX_NFR_12</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="G15" s="32" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="I15" s="34"/>
     </row>
     <row r="16" spans="1:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="A16" s="29" t="s">
-        <v>85</v>
+      <c r="A16" s="29">
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="B16" s="48" t="s">
         <v>11</v>
@@ -3022,25 +2765,26 @@
       </c>
       <c r="E16" s="33" t="str">
         <f>IF(B16="","",'00 - Technical Parameter'!$B$3&amp;"_"&amp;$B$2&amp;"_"&amp;A16)</f>
-        <v>PREFIX_NFR_013</v>
+        <v>PREFIX_NFR_13</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G16" s="32" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="H16" s="38" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="I16" s="34"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="29" t="s">
-        <v>86</v>
+      <c r="A17" s="29">
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>182</v>
+        <v>79</v>
       </c>
       <c r="C17" s="30"/>
       <c r="D17" s="49" t="str">
@@ -3049,25 +2793,26 @@
       </c>
       <c r="E17" s="33" t="str">
         <f>IF(B17="","",'00 - Technical Parameter'!$B$3&amp;"_"&amp;$B$2&amp;"_"&amp;A17)</f>
-        <v>PREFIX_NFR_014</v>
+        <v>PREFIX_NFR_14</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G17" s="32" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="H17" s="38" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="I17" s="34"/>
     </row>
     <row r="18" spans="1:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="A18" s="29" t="s">
-        <v>87</v>
+      <c r="A18" s="29">
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>177</v>
+        <v>74</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="49" t="str">
@@ -3076,22 +2821,23 @@
       </c>
       <c r="E18" s="33" t="str">
         <f>IF(B18="","",'00 - Technical Parameter'!$B$3&amp;"_"&amp;$B$2&amp;"_"&amp;A18)</f>
-        <v>PREFIX_NFR_015</v>
+        <v>PREFIX_NFR_15</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="G18" s="32" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="H18" s="38" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="I18" s="34"/>
     </row>
     <row r="19" spans="1:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="A19" s="29" t="s">
-        <v>88</v>
+      <c r="A19" s="29">
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="B19" s="48" t="s">
         <v>11</v>
@@ -3103,22 +2849,23 @@
       </c>
       <c r="E19" s="33" t="str">
         <f>IF(B19="","",'00 - Technical Parameter'!$B$3&amp;"_"&amp;$B$2&amp;"_"&amp;A19)</f>
-        <v>PREFIX_NFR_016</v>
+        <v>PREFIX_NFR_16</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="G19" s="32" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="H19" s="38" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="I19" s="34"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="29" t="s">
-        <v>89</v>
+      <c r="A20" s="29">
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="B20" s="48" t="s">
         <v>8</v>
@@ -3130,22 +2877,23 @@
       </c>
       <c r="E20" s="33" t="str">
         <f>IF(B20="","",'00 - Technical Parameter'!$B$3&amp;"_"&amp;$B$2&amp;"_"&amp;A20)</f>
-        <v>PREFIX_NFR_017</v>
+        <v>PREFIX_NFR_17</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="G20" s="32" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="H20" s="38" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="A21" s="29" t="s">
-        <v>90</v>
+      <c r="A21" s="29">
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="B21" s="48" t="s">
         <v>8</v>
@@ -3157,22 +2905,23 @@
       </c>
       <c r="E21" s="33" t="str">
         <f>IF(B21="","",'00 - Technical Parameter'!$B$3&amp;"_"&amp;$B$2&amp;"_"&amp;A21)</f>
-        <v>PREFIX_NFR_018</v>
+        <v>PREFIX_NFR_18</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G21" s="32" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="H21" s="38" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="I21" s="34"/>
     </row>
     <row r="22" spans="1:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="A22" s="29" t="s">
-        <v>91</v>
+      <c r="A22" s="29">
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="B22" s="48" t="s">
         <v>8</v>
@@ -3184,22 +2933,23 @@
       </c>
       <c r="E22" s="33" t="str">
         <f>IF(B22="","",'00 - Technical Parameter'!$B$3&amp;"_"&amp;$B$2&amp;"_"&amp;A22)</f>
-        <v>PREFIX_NFR_019</v>
+        <v>PREFIX_NFR_19</v>
       </c>
       <c r="F22" s="31" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G22" s="32" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="H22" s="38" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="I22" s="34"/>
     </row>
     <row r="23" spans="1:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="A23" s="29" t="s">
-        <v>92</v>
+      <c r="A23" s="29">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="B23" s="48" t="s">
         <v>8</v>
@@ -3211,22 +2961,23 @@
       </c>
       <c r="E23" s="33" t="str">
         <f>IF(B23="","",'00 - Technical Parameter'!$B$3&amp;"_"&amp;$B$2&amp;"_"&amp;A23)</f>
-        <v>PREFIX_NFR_020</v>
+        <v>PREFIX_NFR_20</v>
       </c>
       <c r="F23" s="31" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G23" s="32" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="H23" s="38" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="I23" s="34"/>
     </row>
     <row r="24" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A24" s="29" t="s">
-        <v>93</v>
+      <c r="A24" s="29">
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="B24" s="48" t="s">
         <v>9</v>
@@ -3238,22 +2989,23 @@
       </c>
       <c r="E24" s="33" t="str">
         <f>IF(B24="","",'00 - Technical Parameter'!$B$3&amp;"_"&amp;$B$2&amp;"_"&amp;A24)</f>
-        <v>PREFIX_NFR_021</v>
+        <v>PREFIX_NFR_21</v>
       </c>
       <c r="F24" s="31" t="s">
-        <v>165</v>
+        <v>62</v>
       </c>
       <c r="G24" s="32" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="I24" s="34"/>
     </row>
     <row r="25" spans="1:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="A25" s="29" t="s">
-        <v>94</v>
+      <c r="A25" s="29">
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
       <c r="B25" s="48" t="s">
         <v>9</v>
@@ -3265,22 +3017,23 @@
       </c>
       <c r="E25" s="33" t="str">
         <f>IF(B25="","",'00 - Technical Parameter'!$B$3&amp;"_"&amp;$B$2&amp;"_"&amp;A25)</f>
-        <v>PREFIX_NFR_022</v>
+        <v>PREFIX_NFR_22</v>
       </c>
       <c r="F25" s="31" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G25" s="32" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="H25" s="38" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="I25" s="34"/>
     </row>
     <row r="26" spans="1:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="A26" s="29" t="s">
-        <v>95</v>
+      <c r="A26" s="29">
+        <f t="shared" si="0"/>
+        <v>23</v>
       </c>
       <c r="B26" s="48" t="s">
         <v>9</v>
@@ -3292,22 +3045,23 @@
       </c>
       <c r="E26" s="33" t="str">
         <f>IF(B26="","",'00 - Technical Parameter'!$B$3&amp;"_"&amp;$B$2&amp;"_"&amp;A26)</f>
-        <v>PREFIX_NFR_023</v>
+        <v>PREFIX_NFR_23</v>
       </c>
       <c r="F26" s="31" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="G26" s="32" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="H26" s="38" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="I26" s="34"/>
     </row>
     <row r="27" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A27" s="29" t="s">
-        <v>96</v>
+      <c r="A27" s="29">
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="B27" s="48" t="s">
         <v>6</v>
@@ -3319,22 +3073,23 @@
       </c>
       <c r="E27" s="33" t="str">
         <f>IF(B27="","",'00 - Technical Parameter'!$B$3&amp;"_"&amp;$B$2&amp;"_"&amp;A27)</f>
-        <v>PREFIX_NFR_024</v>
+        <v>PREFIX_NFR_24</v>
       </c>
       <c r="F27" s="31" t="s">
-        <v>163</v>
+        <v>60</v>
       </c>
       <c r="G27" s="32" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="H27" s="38" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="I27" s="34"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="29" t="s">
-        <v>97</v>
+      <c r="A28" s="29">
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="B28" s="48" t="s">
         <v>6</v>
@@ -3346,22 +3101,23 @@
       </c>
       <c r="E28" s="33" t="str">
         <f>IF(B28="","",'00 - Technical Parameter'!$B$3&amp;"_"&amp;$B$2&amp;"_"&amp;A28)</f>
-        <v>PREFIX_NFR_025</v>
+        <v>PREFIX_NFR_25</v>
       </c>
       <c r="F28" s="31" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="G28" s="32" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="H28" s="38" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="I28" s="34"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="29" t="s">
-        <v>98</v>
+      <c r="A29" s="29">
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="B29" s="48" t="s">
         <v>7</v>
@@ -3373,22 +3129,23 @@
       </c>
       <c r="E29" s="33" t="str">
         <f>IF(B29="","",'00 - Technical Parameter'!$B$3&amp;"_"&amp;$B$2&amp;"_"&amp;A29)</f>
-        <v>PREFIX_NFR_026</v>
+        <v>PREFIX_NFR_26</v>
       </c>
       <c r="F29" s="31" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G29" s="32" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="H29" s="38" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="I29" s="34"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="29" t="s">
-        <v>99</v>
+      <c r="A30" s="29">
+        <f t="shared" si="0"/>
+        <v>27</v>
       </c>
       <c r="B30" s="48" t="s">
         <v>7</v>
@@ -3400,22 +3157,23 @@
       </c>
       <c r="E30" s="33" t="str">
         <f>IF(B30="","",'00 - Technical Parameter'!$B$3&amp;"_"&amp;$B$2&amp;"_"&amp;A30)</f>
-        <v>PREFIX_NFR_027</v>
+        <v>PREFIX_NFR_27</v>
       </c>
       <c r="F30" s="31" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G30" s="32" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="H30" s="38" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="I30" s="34"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="29" t="s">
-        <v>100</v>
+      <c r="A31" s="29">
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
       <c r="B31" s="48" t="s">
         <v>7</v>
@@ -3427,22 +3185,23 @@
       </c>
       <c r="E31" s="33" t="str">
         <f>IF(B31="","",'00 - Technical Parameter'!$B$3&amp;"_"&amp;$B$2&amp;"_"&amp;A31)</f>
-        <v>PREFIX_NFR_028</v>
+        <v>PREFIX_NFR_28</v>
       </c>
       <c r="F31" s="31" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G31" s="32" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="H31" s="38" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="I31" s="34"/>
     </row>
     <row r="32" spans="1:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="A32" s="29" t="s">
-        <v>101</v>
+      <c r="A32" s="29">
+        <f t="shared" si="0"/>
+        <v>29</v>
       </c>
       <c r="B32" s="48" t="s">
         <v>11</v>
@@ -3454,22 +3213,23 @@
       </c>
       <c r="E32" s="33" t="str">
         <f>IF(B32="","",'00 - Technical Parameter'!$B$3&amp;"_"&amp;$B$2&amp;"_"&amp;A32)</f>
-        <v>PREFIX_NFR_029</v>
+        <v>PREFIX_NFR_29</v>
       </c>
       <c r="F32" s="31" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G32" s="32" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="H32" s="38" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="I32" s="34"/>
     </row>
     <row r="33" spans="1:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="A33" s="29" t="s">
-        <v>102</v>
+      <c r="A33" s="29">
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="B33" s="48" t="s">
         <v>11</v>
@@ -3481,22 +3241,23 @@
       </c>
       <c r="E33" s="33" t="str">
         <f>IF(B33="","",'00 - Technical Parameter'!$B$3&amp;"_"&amp;$B$2&amp;"_"&amp;A33)</f>
-        <v>PREFIX_NFR_030</v>
+        <v>PREFIX_NFR_30</v>
       </c>
       <c r="F33" s="31" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="G33" s="32" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="H33" s="38" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="I33" s="34"/>
     </row>
     <row r="34" spans="1:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="A34" s="29" t="s">
-        <v>103</v>
+      <c r="A34" s="29">
+        <f t="shared" si="0"/>
+        <v>31</v>
       </c>
       <c r="B34" s="48" t="s">
         <v>10</v>
@@ -3508,22 +3269,23 @@
       </c>
       <c r="E34" s="33" t="str">
         <f>IF(B34="","",'00 - Technical Parameter'!$B$3&amp;"_"&amp;$B$2&amp;"_"&amp;A34)</f>
-        <v>PREFIX_NFR_031</v>
+        <v>PREFIX_NFR_31</v>
       </c>
       <c r="F34" s="31" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G34" s="32" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="H34" s="38" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="I34" s="34"/>
     </row>
     <row r="35" spans="1:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="A35" s="29" t="s">
-        <v>104</v>
+      <c r="A35" s="29">
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
       <c r="B35" s="48" t="s">
         <v>7</v>
@@ -3535,22 +3297,23 @@
       </c>
       <c r="E35" s="33" t="str">
         <f>IF(B35="","",'00 - Technical Parameter'!$B$3&amp;"_"&amp;$B$2&amp;"_"&amp;A35)</f>
-        <v>PREFIX_NFR_032</v>
+        <v>PREFIX_NFR_32</v>
       </c>
       <c r="F35" s="31" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
       <c r="G35" s="32" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="H35" s="38" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="I35" s="34"/>
     </row>
     <row r="36" spans="1:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="A36" s="29" t="s">
-        <v>105</v>
+      <c r="A36" s="29">
+        <f t="shared" si="0"/>
+        <v>33</v>
       </c>
       <c r="B36" s="48" t="s">
         <v>13</v>
@@ -3562,22 +3325,23 @@
       </c>
       <c r="E36" s="33" t="str">
         <f>IF(B36="","",'00 - Technical Parameter'!$B$3&amp;"_"&amp;$B$2&amp;"_"&amp;A36)</f>
-        <v>PREFIX_NFR_033</v>
+        <v>PREFIX_NFR_33</v>
       </c>
       <c r="F36" s="31" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="G36" s="32" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="H36" s="38" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="I36" s="34"/>
     </row>
     <row r="37" spans="1:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="A37" s="29" t="s">
-        <v>106</v>
+      <c r="A37" s="29">
+        <f t="shared" si="0"/>
+        <v>34</v>
       </c>
       <c r="B37" s="48" t="s">
         <v>12</v>
@@ -3589,22 +3353,23 @@
       </c>
       <c r="E37" s="33" t="str">
         <f>IF(B37="","",'00 - Technical Parameter'!$B$3&amp;"_"&amp;$B$2&amp;"_"&amp;A37)</f>
-        <v>PREFIX_NFR_034</v>
+        <v>PREFIX_NFR_34</v>
       </c>
       <c r="F37" s="31" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="G37" s="32" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="H37" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="I37" s="34"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="29">
+        <f t="shared" si="0"/>
         <v>35</v>
-      </c>
-      <c r="I37" s="34"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="29" t="s">
-        <v>107</v>
       </c>
       <c r="B38" s="48" t="s">
         <v>11</v>
@@ -3616,22 +3381,23 @@
       </c>
       <c r="E38" s="33" t="str">
         <f>IF(B38="","",'00 - Technical Parameter'!$B$3&amp;"_"&amp;$B$2&amp;"_"&amp;A38)</f>
-        <v>PREFIX_NFR_035</v>
+        <v>PREFIX_NFR_35</v>
       </c>
       <c r="F38" s="31" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="G38" s="32" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="H38" s="38" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="I38" s="34"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="29" t="s">
-        <v>108</v>
+      <c r="A39" s="29">
+        <f t="shared" si="0"/>
+        <v>36</v>
       </c>
       <c r="B39" s="48"/>
       <c r="C39" s="30"/>
@@ -3649,8 +3415,9 @@
       <c r="I39" s="34"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="29" t="s">
-        <v>109</v>
+      <c r="A40" s="29">
+        <f t="shared" si="0"/>
+        <v>37</v>
       </c>
       <c r="B40" s="48"/>
       <c r="C40" s="30"/>
@@ -3668,8 +3435,9 @@
       <c r="I40" s="34"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="29" t="s">
-        <v>110</v>
+      <c r="A41" s="29">
+        <f t="shared" si="0"/>
+        <v>38</v>
       </c>
       <c r="B41" s="48"/>
       <c r="C41" s="30"/>
@@ -3687,8 +3455,9 @@
       <c r="I41" s="34"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="29" t="s">
-        <v>111</v>
+      <c r="A42" s="29">
+        <f t="shared" si="0"/>
+        <v>39</v>
       </c>
       <c r="B42" s="48"/>
       <c r="C42" s="30"/>
@@ -3706,8 +3475,9 @@
       <c r="I42" s="34"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="29" t="s">
-        <v>112</v>
+      <c r="A43" s="29">
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="B43" s="48"/>
       <c r="C43" s="30"/>
@@ -3725,8 +3495,9 @@
       <c r="I43" s="34"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="29" t="s">
-        <v>113</v>
+      <c r="A44" s="29">
+        <f t="shared" si="0"/>
+        <v>41</v>
       </c>
       <c r="B44" s="48"/>
       <c r="C44" s="30"/>
@@ -3744,8 +3515,9 @@
       <c r="I44" s="34"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="29" t="s">
-        <v>114</v>
+      <c r="A45" s="29">
+        <f t="shared" si="0"/>
+        <v>42</v>
       </c>
       <c r="B45" s="48"/>
       <c r="C45" s="30"/>
@@ -3763,8 +3535,9 @@
       <c r="I45" s="34"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="29" t="s">
-        <v>115</v>
+      <c r="A46" s="29">
+        <f t="shared" si="0"/>
+        <v>43</v>
       </c>
       <c r="B46" s="48"/>
       <c r="C46" s="30"/>
@@ -3782,8 +3555,9 @@
       <c r="I46" s="34"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="29" t="s">
-        <v>116</v>
+      <c r="A47" s="29">
+        <f t="shared" si="0"/>
+        <v>44</v>
       </c>
       <c r="B47" s="48"/>
       <c r="C47" s="30"/>
@@ -3801,8 +3575,9 @@
       <c r="I47" s="34"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="29" t="s">
-        <v>117</v>
+      <c r="A48" s="29">
+        <f t="shared" si="0"/>
+        <v>45</v>
       </c>
       <c r="B48" s="48"/>
       <c r="C48" s="30"/>
@@ -3820,8 +3595,9 @@
       <c r="I48" s="34"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="29" t="s">
-        <v>118</v>
+      <c r="A49" s="29">
+        <f t="shared" si="0"/>
+        <v>46</v>
       </c>
       <c r="B49" s="48"/>
       <c r="C49" s="30"/>
@@ -3839,8 +3615,9 @@
       <c r="I49" s="34"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="29" t="s">
-        <v>119</v>
+      <c r="A50" s="29">
+        <f t="shared" si="0"/>
+        <v>47</v>
       </c>
       <c r="B50" s="48"/>
       <c r="C50" s="30"/>
@@ -3858,8 +3635,9 @@
       <c r="I50" s="34"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="29" t="s">
-        <v>120</v>
+      <c r="A51" s="29">
+        <f t="shared" si="0"/>
+        <v>48</v>
       </c>
       <c r="B51" s="48"/>
       <c r="C51" s="30"/>
@@ -3877,8 +3655,9 @@
       <c r="I51" s="34"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="29" t="s">
-        <v>121</v>
+      <c r="A52" s="29">
+        <f t="shared" si="0"/>
+        <v>49</v>
       </c>
       <c r="B52" s="48"/>
       <c r="C52" s="30"/>
@@ -3896,8 +3675,9 @@
       <c r="I52" s="34"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="29" t="s">
-        <v>122</v>
+      <c r="A53" s="29">
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
       <c r="B53" s="48"/>
       <c r="C53" s="30"/>
@@ -3915,8 +3695,9 @@
       <c r="I53" s="34"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="29" t="s">
-        <v>123</v>
+      <c r="A54" s="29">
+        <f t="shared" si="0"/>
+        <v>51</v>
       </c>
       <c r="B54" s="48"/>
       <c r="C54" s="30"/>
@@ -3934,8 +3715,9 @@
       <c r="I54" s="34"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="29" t="s">
-        <v>124</v>
+      <c r="A55" s="29">
+        <f t="shared" si="0"/>
+        <v>52</v>
       </c>
       <c r="B55" s="48"/>
       <c r="C55" s="30"/>
@@ -3953,8 +3735,9 @@
       <c r="I55" s="34"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="29" t="s">
-        <v>125</v>
+      <c r="A56" s="29">
+        <f t="shared" si="0"/>
+        <v>53</v>
       </c>
       <c r="B56" s="48"/>
       <c r="C56" s="30"/>
@@ -3972,8 +3755,9 @@
       <c r="I56" s="34"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="29" t="s">
-        <v>126</v>
+      <c r="A57" s="29">
+        <f t="shared" si="0"/>
+        <v>54</v>
       </c>
       <c r="B57" s="48"/>
       <c r="C57" s="30"/>
@@ -3991,8 +3775,9 @@
       <c r="I57" s="34"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="29" t="s">
-        <v>127</v>
+      <c r="A58" s="29">
+        <f t="shared" si="0"/>
+        <v>55</v>
       </c>
       <c r="B58" s="48"/>
       <c r="C58" s="30"/>
@@ -4010,8 +3795,9 @@
       <c r="I58" s="34"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="29" t="s">
-        <v>128</v>
+      <c r="A59" s="29">
+        <f t="shared" si="0"/>
+        <v>56</v>
       </c>
       <c r="B59" s="48"/>
       <c r="C59" s="30"/>
@@ -4029,8 +3815,9 @@
       <c r="I59" s="34"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="29" t="s">
-        <v>129</v>
+      <c r="A60" s="29">
+        <f t="shared" si="0"/>
+        <v>57</v>
       </c>
       <c r="B60" s="48"/>
       <c r="C60" s="30"/>
@@ -4048,8 +3835,9 @@
       <c r="I60" s="34"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="29" t="s">
-        <v>130</v>
+      <c r="A61" s="29">
+        <f t="shared" si="0"/>
+        <v>58</v>
       </c>
       <c r="B61" s="48"/>
       <c r="C61" s="30"/>
@@ -4067,8 +3855,9 @@
       <c r="I61" s="34"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="29" t="s">
-        <v>131</v>
+      <c r="A62" s="29">
+        <f t="shared" si="0"/>
+        <v>59</v>
       </c>
       <c r="B62" s="48"/>
       <c r="C62" s="30"/>
@@ -4086,8 +3875,9 @@
       <c r="I62" s="34"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="29" t="s">
-        <v>132</v>
+      <c r="A63" s="29">
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="B63" s="48"/>
       <c r="C63" s="30"/>
@@ -4105,8 +3895,9 @@
       <c r="I63" s="34"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="29" t="s">
-        <v>133</v>
+      <c r="A64" s="29">
+        <f t="shared" si="0"/>
+        <v>61</v>
       </c>
       <c r="B64" s="48"/>
       <c r="C64" s="30"/>
@@ -4124,8 +3915,9 @@
       <c r="I64" s="34"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="29" t="s">
-        <v>134</v>
+      <c r="A65" s="29">
+        <f t="shared" si="0"/>
+        <v>62</v>
       </c>
       <c r="B65" s="48"/>
       <c r="C65" s="30"/>
@@ -4143,8 +3935,9 @@
       <c r="I65" s="34"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="29" t="s">
-        <v>135</v>
+      <c r="A66" s="29">
+        <f t="shared" si="0"/>
+        <v>63</v>
       </c>
       <c r="B66" s="48"/>
       <c r="C66" s="30"/>
@@ -4162,8 +3955,9 @@
       <c r="I66" s="34"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="29" t="s">
-        <v>136</v>
+      <c r="A67" s="29">
+        <f t="shared" si="0"/>
+        <v>64</v>
       </c>
       <c r="B67" s="48"/>
       <c r="C67" s="30"/>
@@ -4181,8 +3975,9 @@
       <c r="I67" s="34"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="29" t="s">
-        <v>137</v>
+      <c r="A68" s="29">
+        <f t="shared" si="0"/>
+        <v>65</v>
       </c>
       <c r="B68" s="48"/>
       <c r="C68" s="30"/>
@@ -4200,8 +3995,9 @@
       <c r="I68" s="34"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="29" t="s">
-        <v>138</v>
+      <c r="A69" s="29">
+        <f t="shared" si="0"/>
+        <v>66</v>
       </c>
       <c r="B69" s="48"/>
       <c r="C69" s="30"/>
@@ -4219,8 +4015,9 @@
       <c r="I69" s="34"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="29" t="s">
-        <v>139</v>
+      <c r="A70" s="29">
+        <f t="shared" ref="A70:A90" si="1">A69+1</f>
+        <v>67</v>
       </c>
       <c r="B70" s="48"/>
       <c r="C70" s="30"/>
@@ -4238,8 +4035,9 @@
       <c r="I70" s="34"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="29" t="s">
-        <v>140</v>
+      <c r="A71" s="29">
+        <f t="shared" si="1"/>
+        <v>68</v>
       </c>
       <c r="B71" s="48"/>
       <c r="C71" s="30"/>
@@ -4257,8 +4055,9 @@
       <c r="I71" s="34"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="29" t="s">
-        <v>141</v>
+      <c r="A72" s="29">
+        <f t="shared" si="1"/>
+        <v>69</v>
       </c>
       <c r="B72" s="48"/>
       <c r="C72" s="30"/>
@@ -4276,8 +4075,9 @@
       <c r="I72" s="34"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="29" t="s">
-        <v>142</v>
+      <c r="A73" s="29">
+        <f t="shared" si="1"/>
+        <v>70</v>
       </c>
       <c r="B73" s="48"/>
       <c r="C73" s="30"/>
@@ -4295,8 +4095,9 @@
       <c r="I73" s="34"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="29" t="s">
-        <v>143</v>
+      <c r="A74" s="29">
+        <f t="shared" si="1"/>
+        <v>71</v>
       </c>
       <c r="B74" s="48"/>
       <c r="C74" s="30"/>
@@ -4314,8 +4115,9 @@
       <c r="I74" s="34"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="29" t="s">
-        <v>144</v>
+      <c r="A75" s="29">
+        <f t="shared" si="1"/>
+        <v>72</v>
       </c>
       <c r="B75" s="48"/>
       <c r="C75" s="30"/>
@@ -4333,8 +4135,9 @@
       <c r="I75" s="34"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="29" t="s">
-        <v>145</v>
+      <c r="A76" s="29">
+        <f t="shared" si="1"/>
+        <v>73</v>
       </c>
       <c r="B76" s="48"/>
       <c r="C76" s="30"/>
@@ -4352,8 +4155,9 @@
       <c r="I76" s="34"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="29" t="s">
-        <v>146</v>
+      <c r="A77" s="29">
+        <f t="shared" si="1"/>
+        <v>74</v>
       </c>
       <c r="B77" s="48"/>
       <c r="C77" s="30"/>
@@ -4371,8 +4175,9 @@
       <c r="I77" s="34"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="29" t="s">
-        <v>147</v>
+      <c r="A78" s="29">
+        <f t="shared" si="1"/>
+        <v>75</v>
       </c>
       <c r="B78" s="48"/>
       <c r="C78" s="30"/>
@@ -4390,8 +4195,9 @@
       <c r="I78" s="34"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="29" t="s">
-        <v>148</v>
+      <c r="A79" s="29">
+        <f t="shared" si="1"/>
+        <v>76</v>
       </c>
       <c r="B79" s="48"/>
       <c r="C79" s="30"/>
@@ -4409,8 +4215,9 @@
       <c r="I79" s="34"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="29" t="s">
-        <v>149</v>
+      <c r="A80" s="29">
+        <f t="shared" si="1"/>
+        <v>77</v>
       </c>
       <c r="B80" s="48"/>
       <c r="C80" s="30"/>
@@ -4428,8 +4235,9 @@
       <c r="I80" s="34"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="29" t="s">
-        <v>150</v>
+      <c r="A81" s="29">
+        <f t="shared" si="1"/>
+        <v>78</v>
       </c>
       <c r="B81" s="48"/>
       <c r="C81" s="30"/>
@@ -4447,8 +4255,9 @@
       <c r="I81" s="34"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="29" t="s">
-        <v>151</v>
+      <c r="A82" s="29">
+        <f t="shared" si="1"/>
+        <v>79</v>
       </c>
       <c r="B82" s="48"/>
       <c r="C82" s="30"/>
@@ -4466,8 +4275,9 @@
       <c r="I82" s="34"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="29" t="s">
-        <v>152</v>
+      <c r="A83" s="29">
+        <f t="shared" si="1"/>
+        <v>80</v>
       </c>
       <c r="B83" s="48"/>
       <c r="C83" s="30"/>
@@ -4485,8 +4295,9 @@
       <c r="I83" s="34"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="29" t="s">
-        <v>153</v>
+      <c r="A84" s="29">
+        <f t="shared" si="1"/>
+        <v>81</v>
       </c>
       <c r="B84" s="48"/>
       <c r="C84" s="30"/>
@@ -4504,8 +4315,9 @@
       <c r="I84" s="34"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="29" t="s">
-        <v>154</v>
+      <c r="A85" s="29">
+        <f t="shared" si="1"/>
+        <v>82</v>
       </c>
       <c r="B85" s="48"/>
       <c r="C85" s="30"/>
@@ -4523,8 +4335,9 @@
       <c r="I85" s="34"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="29" t="s">
-        <v>155</v>
+      <c r="A86" s="29">
+        <f t="shared" si="1"/>
+        <v>83</v>
       </c>
       <c r="B86" s="48"/>
       <c r="C86" s="30"/>
@@ -4542,8 +4355,9 @@
       <c r="I86" s="34"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="29" t="s">
-        <v>156</v>
+      <c r="A87" s="29">
+        <f t="shared" si="1"/>
+        <v>84</v>
       </c>
       <c r="B87" s="48"/>
       <c r="C87" s="30"/>
@@ -4561,8 +4375,9 @@
       <c r="I87" s="34"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="29" t="s">
-        <v>157</v>
+      <c r="A88" s="29">
+        <f t="shared" si="1"/>
+        <v>85</v>
       </c>
       <c r="B88" s="48"/>
       <c r="C88" s="30"/>
@@ -4580,8 +4395,9 @@
       <c r="I88" s="34"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="29" t="s">
-        <v>158</v>
+      <c r="A89" s="29">
+        <f t="shared" si="1"/>
+        <v>86</v>
       </c>
       <c r="B89" s="48"/>
       <c r="C89" s="47"/>
@@ -4592,8 +4408,9 @@
       <c r="H89" s="51"/>
     </row>
     <row r="90" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="29" t="s">
-        <v>159</v>
+      <c r="A90" s="29">
+        <f t="shared" si="1"/>
+        <v>87</v>
       </c>
       <c r="B90" s="48"/>
       <c r="C90" s="47"/>
@@ -4621,7 +4438,7 @@
   </sheetData>
   <autoFilter ref="A3:B95" xr:uid="{311966ED-1EC1-AE43-8D85-720F186E80ED}"/>
   <phoneticPr fontId="26" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:I88" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>CRITICITY</formula1>
     </dataValidation>
@@ -4636,679 +4453,911 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD3A1F99-1460-534A-B38B-B8FA4397E1BA}">
-  <dimension ref="A1:B110"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:C110"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.5" style="60" customWidth="1"/>
-    <col min="2" max="2" width="172.6640625" style="63" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="62"/>
-    <col min="4" max="4" width="50.6640625" style="62" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="62"/>
+    <col min="2" max="2" width="30.6640625" style="60" customWidth="1"/>
+    <col min="3" max="3" width="172.6640625" style="63" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="62"/>
+    <col min="5" max="5" width="50.6640625" style="62" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="58" customFormat="1" ht="26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="58" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A1" s="58" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="59" customFormat="1" ht="21" x14ac:dyDescent="0.2">
-      <c r="B2" s="59" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="59" customFormat="1" ht="21" x14ac:dyDescent="0.2">
-      <c r="B3" s="59" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B4" s="61" t="str">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="59" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+      <c r="C2" s="59" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="59" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+      <c r="C3" s="59" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="C4" s="61" t="str">
         <f>"|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E3&amp;"**|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!F3&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G3&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H3&amp;"|"</f>
-        <v>|**Identifiant**|Description|Origine|Criticité|</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" s="27" t="str">
+        <v>|**Identifiant**|Description|Origin|Level|</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="27" t="str">
         <f>"|---|---|---|---|"</f>
         <v>|---|---|---|---|</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="B6" s="61" t="str">
+    <row r="6" spans="1:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="60" t="str">
+        <f>'02-NONFUNCTIONALREQUIREMENTS'!B4</f>
+        <v>Manageability</v>
+      </c>
+      <c r="C6" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E4="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E4&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F4&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G4&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H4&amp;"|")</f>
-        <v>|**PREFIX_NFR_001**|The SYSTEM doit implémenter une chaine d'intégration et de déploiement continue (DEVOPS - CI/CD)afin de permettre un temps de mise sur le marché (TTM) optimisé.|Hypothèse|ESSENTIEL|</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="B7" s="61" t="str">
+        <v>|**PREFIX_NFR_1**|The SYSTEM must implement a continuous integration and deployment chain (DEVOPS - CI / CD) in order to allow optimized time to market (TTM).|Assumption|ESSENTIAL|</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B7" s="60" t="str">
+        <f>'02-NONFUNCTIONALREQUIREMENTS'!B5</f>
+        <v>Usability</v>
+      </c>
+      <c r="C7" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E5="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E5&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F5&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G5&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H5&amp;"|")</f>
-        <v>|**PREFIX_NFR_002**|The SYSTEM permettre l'affichage de ses écrans WEB avec une résolution minimale de 1024*768|Hypothèse|ESSENTIEL|</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="B8" s="61" t="str">
+        <v>|**PREFIX_NFR_2**|The SYSTEM allow the display of its WEB screens with a minimum resolution of 1024 * 768|Assumption|ESSENTIAL|</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B8" s="60" t="str">
+        <f>'02-NONFUNCTIONALREQUIREMENTS'!B6</f>
+        <v>Usability</v>
+      </c>
+      <c r="C8" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E6="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E6&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F6&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G6&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H6&amp;"|")</f>
-        <v>|**PREFIX_NFR_003**|The SYSTEM permettre l'affichage de ses écrans WEB avec le navigateur **Chrome** Version 75.0. sur Windows 10  (64 Bits).|Hypothèse|OBLIGATOIRE|</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="B9" s="61" t="str">
+        <v>|**PREFIX_NFR_3**|The SYSTEM allow the display of its WEB screens with the browser ** Chrome ** Version 75.0. on Windows 10 (64 Bits).|Assumption|MANDATORY|</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B9" s="60" t="str">
+        <f>'02-NONFUNCTIONALREQUIREMENTS'!B7</f>
+        <v>Usability</v>
+      </c>
+      <c r="C9" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E7="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E7&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F7&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G7&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H7&amp;"|")</f>
-        <v>|**PREFIX_NFR_004**|The SYSTEM être testé avec un affichage de ses écrans WEB avec le navigateur **Firefox** Version 68 sur Windows 10  (64 Bits).|Hypothèse|ESSENTIEL|</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="B10" s="61" t="str">
+        <v>|**PREFIX_NFR_4**|The SYSTEM be tested with a display of its WEB screens with the browser ** Firefox ** Version 68 on Windows 10 (64 Bits).|Assumption|ESSENTIAL|</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B10" s="60" t="str">
+        <f>'02-NONFUNCTIONALREQUIREMENTS'!B8</f>
+        <v>Usability</v>
+      </c>
+      <c r="C10" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E8="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E8&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F8&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G8&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H8&amp;"|")</f>
-        <v>|**PREFIX_NFR_005**|The SYSTEM être testé avec un affichage de ses écrans WEB avec le navigateur **Safari** Version 12 sur MacOs Mojave.|Hypothèse|ESSENTIEL|</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="B11" s="61" t="str">
+        <v>|**PREFIX_NFR_5**|The SYSTEM be tested with a display of its WEB screens with the browser ** Safari ** Version 12 on MacOs Mojave.|Assumption|ESSENTIAL|</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B11" s="60" t="str">
+        <f>'02-NONFUNCTIONALREQUIREMENTS'!B9</f>
+        <v>Usability</v>
+      </c>
+      <c r="C11" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E9="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E9&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F9&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G9&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H9&amp;"|")</f>
-        <v>|**PREFIX_NFR_006**|The SYSTEM permettre l'affichage de ses écrans WEB dans une approche "responsive" permettant la gestion des orientations 'Tablette'|Hypothèse|OBLIGATOIRE|</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="B12" s="61" t="str">
+        <v>|**PREFIX_NFR_6**|The SYSTEM allow the display of its WEB screens in a "responsive" approach allowing the management of 'Tablet' orientations|Assumption|MANDATORY|</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="60" t="str">
+        <f>'02-NONFUNCTIONALREQUIREMENTS'!B10</f>
+        <v>Integrity</v>
+      </c>
+      <c r="C12" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E10="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E10&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F10&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G10&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H10&amp;"|")</f>
-        <v>|**PREFIX_NFR_007**|The SYSTEM permettre la ségrégation des données par client ("Multi-tenant")|Hypothèse|OBLIGATOIRE|</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="B13" s="61" t="str">
+        <v>|**PREFIX_NFR_7**|The SYSTEM allow data segregation by client ("Multi-tenant")|Assumption|MANDATORY|</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="60" t="str">
+        <f>'02-NONFUNCTIONALREQUIREMENTS'!B11</f>
+        <v>Internationalisation</v>
+      </c>
+      <c r="C13" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E11="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E11&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F11&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G11&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H11&amp;"|")</f>
-        <v>|**PREFIX_NFR_008**|The SYSTEM afficher l'ensemble des labels de ses interfaces en **français** par défaut|Hypothèse|OBLIGATOIRE|</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="B14" s="61" t="str">
+        <v>|**PREFIX_NFR_8**|The SYSTEM display all labels of its interfaces in ** French ** by default|Assumption|MANDATORY|</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="60" t="str">
+        <f>'02-NONFUNCTIONALREQUIREMENTS'!B12</f>
+        <v>Internationalisation</v>
+      </c>
+      <c r="C14" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E12="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E12&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F12&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G12&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H12&amp;"|")</f>
-        <v>|**PREFIX_NFR_009**|The SYSTEM permettre l'affichage des labels de ses interfaces dans d'autres langues (Right-To-Left) au moyen du chargement d'un fichier de configuration sur le serveur, selon la configuration du navigateur appelant.|Hypothèse|OPTIONNEL|</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="B15" s="61" t="str">
+        <v>|**PREFIX_NFR_9**|The SYSTEM allow the display of the labels of its interfaces in other languages(Right-To-Left) by loading a configuration file on the server, depending on the configuration of the calling browser.|Assumption|OPTIONAL|</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="60" t="str">
+        <f>'02-NONFUNCTIONALREQUIREMENTS'!B13</f>
+        <v>Internationalisation</v>
+      </c>
+      <c r="C15" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E13="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E13&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F13&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G13&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H13&amp;"|")</f>
-        <v>|**PREFIX_NFR_010**|The SYSTEM stocker et afficher les éléments journalisés sur la plateforme en **anglais**|Hypothèse|ESSENTIEL|</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="B16" s="61" t="str">
+        <v>|**PREFIX_NFR_10**|The SYSTEM stocker et afficher les éléments journalisés sur la plateforme en **anglais**|Assumption|ESSENTIAL|</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="60" t="str">
+        <f>'02-NONFUNCTIONALREQUIREMENTS'!B14</f>
+        <v>Integrity</v>
+      </c>
+      <c r="C16" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E14="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E14&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F14&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G14&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H14&amp;"|")</f>
-        <v>|**PREFIX_NFR_011**|The SYSTEM stocker toutes les information de date/temps  selon la zone  **UTC Zero**|Hypothèse|OBLIGATOIRE|</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="B17" s="61" t="str">
+        <v>|**PREFIX_NFR_11**|The SYSTEM stocker toutes les information de date/temps  selon la zone  **UTC Zero**|Assumption|MANDATORY|</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B17" s="60" t="str">
+        <f>'02-NONFUNCTIONALREQUIREMENTS'!B15</f>
+        <v>Usability</v>
+      </c>
+      <c r="C17" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E15="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E15&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F15&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G15&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H15&amp;"|")</f>
-        <v>|**PREFIX_NFR_012**|The SYSTEM Afficher les informations de date/temps dans le fuseau horaire configuré sur le navigateur de l'utilisateur.|Hypothèse|ESSENTIEL|</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="B18" s="61" t="str">
+        <v>|**PREFIX_NFR_12**|The SYSTEM Afficher les informations de date/temps dans le fuseau horaire configuré sur le navigateur de l'utilisateur.|Assumption|ESSENTIAL|</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="60" t="str">
+        <f>'02-NONFUNCTIONALREQUIREMENTS'!B16</f>
+        <v>Intégrité</v>
+      </c>
+      <c r="C18" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E16="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E16&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F16&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G16&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H16&amp;"|")</f>
-        <v>|**PREFIX_NFR_013**|The SYSTEM stocker les informations de date/temps au format **ISO 8601**  Exemple : **2017-09-15T17:27:00Z**|Hypothèse|OBLIGATOIRE|</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="B19" s="61" t="str">
+        <v>|**PREFIX_NFR_13**|The SYSTEM stocker les informations de date/temps au format **ISO 8601**  Exemple : **2017-09-15T17:27:00Z**|Assumption|MANDATORY|</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="60" t="str">
+        <f>'02-NONFUNCTIONALREQUIREMENTS'!B17</f>
+        <v>Corporate</v>
+      </c>
+      <c r="C19" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E17="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E17&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F17&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G17&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H17&amp;"|")</f>
-        <v>|**PREFIX_NFR_014**|The SYSTEM doit être localisé en Union Européenne|Hypothèse|OBLIGATOIRE|</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="B20" s="61" t="str">
+        <v>|**PREFIX_NFR_14**|The SYSTEM doit être localisé en Union Européenne|Assumption|MANDATORY|</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="60" t="str">
+        <f>'02-NONFUNCTIONALREQUIREMENTS'!B18</f>
+        <v>Integrity</v>
+      </c>
+      <c r="C20" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E18="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E18&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F18&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G18&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H18&amp;"|")</f>
-        <v>|**PREFIX_NFR_015**|The SYSTEM stocker les informations de codes pays  au format **ISO  3166**  Exemple : **fr**|Hypothèse|OBLIGATOIRE|</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="B21" s="61" t="str">
+        <v>|**PREFIX_NFR_15**|The SYSTEM stocker les informations de codes pays  au format **ISO  3166**  Exemple : **fr**|Assumption|MANDATORY|</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="60" t="str">
+        <f>'02-NONFUNCTIONALREQUIREMENTS'!B19</f>
+        <v>Intégrité</v>
+      </c>
+      <c r="C21" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E19="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E19&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F19&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G19&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H19&amp;"|")</f>
-        <v>|**PREFIX_NFR_016**|The SYSTEM stocker les informations d'unités monétaires au format **ISO 4217**  Exemple : **EUR**|Hypothèse|OBLIGATOIRE|</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="B22" s="61" t="str">
+        <v>|**PREFIX_NFR_16**|The SYSTEM stocker les informations d'unités monétaires au format **ISO 4217**  Exemple : **EUR**|Assumption|MANDATORY|</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="60" t="str">
+        <f>'02-NONFUNCTIONALREQUIREMENTS'!B20</f>
+        <v>Capacité</v>
+      </c>
+      <c r="C22" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E20="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E20&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F20&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G20&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H20&amp;"|")</f>
-        <v>|**PREFIX_NFR_017**|The SYSTEM accueillir  YYYY utilisateurs **potentiels**  |Hypothèse|OBLIGATOIRE|</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="B23" s="61" t="str">
+        <v>|**PREFIX_NFR_17**|The SYSTEM accueillir  YYYY utilisateurs **potentiels**  |Assumption|MANDATORY|</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="60" t="str">
+        <f>'02-NONFUNCTIONALREQUIREMENTS'!B21</f>
+        <v>Capacité</v>
+      </c>
+      <c r="C23" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E21="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E21&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F21&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G21&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H21&amp;"|")</f>
-        <v>|**PREFIX_NFR_018**|The SYSTEM accueillir  des utilisateurs **courants** (Connectés au système, mais pas forcément actifs) à hauteur de 10% des utilisateurs potentiels|Hypothèse|ESSENTIEL|</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="B24" s="61" t="str">
+        <v>|**PREFIX_NFR_18**|The SYSTEM accueillir  des utilisateurs **courants** (Connectés au système, mais pas forcément actifs) à hauteur de 10% des utilisateurs potentiels|Assumption|ESSENTIAL|</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="60" t="str">
+        <f>'02-NONFUNCTIONALREQUIREMENTS'!B22</f>
+        <v>Capacité</v>
+      </c>
+      <c r="C24" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E22="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E22&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F22&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G22&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H22&amp;"|")</f>
-        <v>|**PREFIX_NFR_019**|The SYSTEM accueillir  des utilisateurs **actifs/concurrents**   à hauteur de 1% des utilisateurs potentiels|Hypothèse|ESSENTIEL|</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="B25" s="61" t="str">
+        <v>|**PREFIX_NFR_19**|The SYSTEM accueillir  des utilisateurs **actifs/concurrents**   à hauteur de 1% des utilisateurs potentiels|Assumption|ESSENTIAL|</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="60" t="str">
+        <f>'02-NONFUNCTIONALREQUIREMENTS'!B23</f>
+        <v>Capacité</v>
+      </c>
+      <c r="C25" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E23="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E23&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F23&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G23&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H23&amp;"|")</f>
-        <v>|**PREFIX_NFR_020**|The SYSTEM pouvoir répondre à **2 sollicitations** (API) concurrentes par des systèmes externes |Hypothèse|OBLIGATOIRE|</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B26" s="61" t="str">
+        <v>|**PREFIX_NFR_20**|The SYSTEM pouvoir répondre à **2 sollicitations** (API) concurrentes par des systèmes externes |Assumption|MANDATORY|</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="60" t="str">
+        <f>'02-NONFUNCTIONALREQUIREMENTS'!B24</f>
+        <v>Sécurité</v>
+      </c>
+      <c r="C26" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E24="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E24&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F24&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G24&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H24&amp;"|")</f>
-        <v>|**PREFIX_NFR_021**|The SYSTEM reposer sur un référentiel des identités fourni par un tiers externe (OpenID Connect) pour l'ensemble de ses utilisateurs (Interne/Externe) (Authentification: Identification de haut niveau : Accès à l'application) |Hypothèse|OBLIGATOIRE|</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B27" s="61" t="str">
+        <v>|**PREFIX_NFR_21**|The SYSTEM reposer sur un référentiel des identités fourni par un tiers externe (OpenID Connect) pour l'ensemble de ses utilisateurs (Interne/Externe) (Authentification: Identification de haut niveau : Accès à l'application) |Assumption|MANDATORY|</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="60" t="str">
+        <f>'02-NONFUNCTIONALREQUIREMENTS'!B25</f>
+        <v>Sécurité</v>
+      </c>
+      <c r="C27" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E25="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E25&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F25&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G25&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H25&amp;"|")</f>
-        <v>|**PREFIX_NFR_022**|The SYSTEM reposer sur un gestionnaire  des identités interne au SYSTEME permettant d'associer des permissions à un utilisateur|Hypothèse|OBLIGATOIRE|</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B28" s="61" t="str">
+        <v>|**PREFIX_NFR_22**|The SYSTEM reposer sur un gestionnaire  des identités interne au SYSTEME permettant d'associer des permissions à un utilisateur|Assumption|MANDATORY|</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="60" t="str">
+        <f>'02-NONFUNCTIONALREQUIREMENTS'!B26</f>
+        <v>Sécurité</v>
+      </c>
+      <c r="C28" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E26="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E26&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F26&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G26&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H26&amp;"|")</f>
-        <v>|**PREFIX_NFR_023**|The SYSTEM reposer sur le protocole https (Combinaison entre HTTP et un protocole de chiffrement) pour opérer ses échanges entre les clients et le serveur.|Hypothèse|OBLIGATOIRE|</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B29" s="61" t="str">
+        <v>|**PREFIX_NFR_23**|The SYSTEM reposer sur le protocole https (Combinaison entre HTTP et un protocole de chiffrement) pour opérer ses échanges entre les clients et le serveur.|Assumption|MANDATORY|</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="60" t="str">
+        <f>'02-NONFUNCTIONALREQUIREMENTS'!B27</f>
+        <v>Disponibilité</v>
+      </c>
+      <c r="C29" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E27="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E27&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F27&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G27&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H27&amp;"|")</f>
-        <v>|**PREFIX_NFR_024**|The SYSTEM proposer une plage de service remontant une disponibilité  correspondant a un SLA de 99.9% en dehors des interruptions pour maintenance programmée|Hypothèse|OBLIGATOIRE|</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B30" s="61" t="str">
+        <v>|**PREFIX_NFR_24**|The SYSTEM proposer une plage de service remontant une disponibilité  correspondant a un SLA de 99.9% en dehors des interruptions pour maintenance programmée|Assumption|MANDATORY|</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="60" t="str">
+        <f>'02-NONFUNCTIONALREQUIREMENTS'!B28</f>
+        <v>Disponibilité</v>
+      </c>
+      <c r="C30" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E28="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E28&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F28&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G28&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H28&amp;"|")</f>
-        <v>|**PREFIX_NFR_025**|The SYSTEM programmer des plages de maintenance d'une durée de 4h par mois|Hypothèse|ESSENTIEL|</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B31" s="61" t="str">
+        <v>|**PREFIX_NFR_25**|The SYSTEM programmer des plages de maintenance d'une durée de 4h par mois|Assumption|ESSENTIAL|</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="60" t="str">
+        <f>'02-NONFUNCTIONALREQUIREMENTS'!B29</f>
+        <v>Performance</v>
+      </c>
+      <c r="C31" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E29="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E29&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F29&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G29&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H29&amp;"|")</f>
-        <v>|**PREFIX_NFR_026**|The SYSTEM authentifier un utilisateur anonyme en 30 secondes|Hypothèse|ESSENTIEL|</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B32" s="61" t="str">
+        <v>|**PREFIX_NFR_26**|The SYSTEM authentifier un utilisateur anonyme en 30 secondes|Assumption|ESSENTIAL|</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="60" t="str">
+        <f>'02-NONFUNCTIONALREQUIREMENTS'!B30</f>
+        <v>Performance</v>
+      </c>
+      <c r="C32" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E30="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E30&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F30&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G30&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H30&amp;"|")</f>
-        <v>|**PREFIX_NFR_027**|The SYSTEM afficher 90% des pages Web en moins de 3 secondes|Hypothèse|ESSENTIEL|</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B33" s="61" t="str">
+        <v>|**PREFIX_NFR_27**|The SYSTEM afficher 90% des pages Web en moins de 3 secondes|Assumption|ESSENTIAL|</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="60" t="str">
+        <f>'02-NONFUNCTIONALREQUIREMENTS'!B31</f>
+        <v>Performance</v>
+      </c>
+      <c r="C33" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E31="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E31&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F31&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G31&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H31&amp;"|")</f>
-        <v>|**PREFIX_NFR_028**|The SYSTEM afficher les pages web en moins de 15 secondes|Hypothèse|ESSENTIEL|</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B34" s="61" t="str">
+        <v>|**PREFIX_NFR_28**|The SYSTEM afficher les pages web en moins de 15 secondes|Assumption|ESSENTIAL|</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="60" t="str">
+        <f>'02-NONFUNCTIONALREQUIREMENTS'!B32</f>
+        <v>Intégrité</v>
+      </c>
+      <c r="C34" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E32="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E32&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F32&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G32&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H32&amp;"|")</f>
-        <v>|**PREFIX_NFR_029**|The SYSTEM mettre en place des mécanismes permettant d'optimiser la qualité des données entrantes (Contrôle d'intégrité, Liste de valeurs finies)|Hypothèse|ESSENTIEL|</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B35" s="61" t="str">
+        <v>|**PREFIX_NFR_29**|The SYSTEM mettre en place des mécanismes permettant d'optimiser la qualité des données entrantes (Contrôle d'intégrité, Liste de valeurs finies)|Assumption|ESSENTIAL|</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="60" t="str">
+        <f>'02-NONFUNCTIONALREQUIREMENTS'!B33</f>
+        <v>Intégrité</v>
+      </c>
+      <c r="C35" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E33="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E33&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F33&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G33&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H33&amp;"|")</f>
-        <v>|**PREFIX_NFR_030**|The SYSTEM journaliser les évènements 'métier' (opérations sur les données) à des fins de traçabilité|Hypothèse|OBLIGATOIRE|</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B36" s="61" t="str">
+        <v>|**PREFIX_NFR_30**|The SYSTEM journaliser les évènements 'métier' (opérations sur les données) à des fins de traçabilité|Assumption|MANDATORY|</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="60" t="str">
+        <f>'02-NONFUNCTIONALREQUIREMENTS'!B34</f>
+        <v>Manageabilité</v>
+      </c>
+      <c r="C36" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E34="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E34&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F34&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G34&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H34&amp;"|")</f>
-        <v>|**PREFIX_NFR_031**|The SYSTEM  promouvoir le couplage faible entre composants (internes et externes)|Hypothèse|OBLIGATOIRE|</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B37" s="61" t="str">
+        <v>|**PREFIX_NFR_31**|The SYSTEM  promouvoir le couplage faible entre composants (internes et externes)|Assumption|MANDATORY|</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="60" t="str">
+        <f>'02-NONFUNCTIONALREQUIREMENTS'!B35</f>
+        <v>Performance</v>
+      </c>
+      <c r="C37" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E35="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E35&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F35&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G35&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H35&amp;"|")</f>
-        <v>|**PREFIX_NFR_032**|The SYSTEM absorber un pic de charge correspondant à **25%** de la charge totale concentrée sur un pic d'1heure.|Hypothèse|ESSENTIEL|</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B38" s="61" t="str">
+        <v>|**PREFIX_NFR_32**|The SYSTEM absorber un pic de charge correspondant à **25%** de la charge totale concentrée sur un pic d'1heure.|Assumption|ESSENTIAL|</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="60" t="str">
+        <f>'02-NONFUNCTIONALREQUIREMENTS'!B36</f>
+        <v>Portabilité</v>
+      </c>
+      <c r="C38" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E36="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E36&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F36&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G36&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H36&amp;"|")</f>
-        <v>|**PREFIX_NFR_033**|The SYSTEM faciliter la portabilité de la solution vers différents systèmes d'hébergement (Fournisseur Cloud, Sur site)|Hypothèse|OBLIGATOIRE|</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B39" s="61" t="str">
+        <v>|**PREFIX_NFR_33**|The SYSTEM faciliter la portabilité de la solution vers différents systèmes d'hébergement (Fournisseur Cloud, Sur site)|Assumption|MANDATORY|</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="60" t="str">
+        <f>'02-NONFUNCTIONALREQUIREMENTS'!B37</f>
+        <v>Scalabilité</v>
+      </c>
+      <c r="C39" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E37="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E37&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F37&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G37&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H37&amp;"|")</f>
-        <v>|**PREFIX_NFR_034**|The SYSTEM permettre d'adapter sa configuration à la charge utilisateurs/systèmes (Croissance/Décroissance)|Hypothèse|OBLIGATOIRE|</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B40" s="61" t="str">
+        <v>|**PREFIX_NFR_34**|The SYSTEM permettre d'adapter sa configuration à la charge utilisateurs/systèmes (Croissance/Décroissance)|Assumption|MANDATORY|</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="60" t="str">
+        <f>'02-NONFUNCTIONALREQUIREMENTS'!B38</f>
+        <v>Intégrité</v>
+      </c>
+      <c r="C40" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E38="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E38&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F38&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G38&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H38&amp;"|")</f>
-        <v>|**PREFIX_NFR_035**|The SYSTEM journaliser les évènements techniques|Hypothèse|OBLIGATOIRE|</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B41" s="61" t="str">
+        <v>|**PREFIX_NFR_35**|The SYSTEM journaliser les évènements techniques|Assumption|MANDATORY|</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="60">
+        <f>'02-NONFUNCTIONALREQUIREMENTS'!B39</f>
+        <v>0</v>
+      </c>
+      <c r="C41" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E39="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E39&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F39&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G39&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H39&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="42" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B42" s="61" t="str">
+    <row r="42" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="60">
+        <f>'02-NONFUNCTIONALREQUIREMENTS'!B40</f>
+        <v>0</v>
+      </c>
+      <c r="C42" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E40="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E40&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F40&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G40&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H40&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="43" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B43" s="61" t="str">
+    <row r="43" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="60">
+        <f>'02-NONFUNCTIONALREQUIREMENTS'!B41</f>
+        <v>0</v>
+      </c>
+      <c r="C43" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E41="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E41&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F41&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G41&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H41&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="44" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B44" s="61" t="str">
+    <row r="44" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="60">
+        <f>'02-NONFUNCTIONALREQUIREMENTS'!B42</f>
+        <v>0</v>
+      </c>
+      <c r="C44" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E42="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E42&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F42&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G42&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H42&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="45" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B45" s="61" t="str">
+    <row r="45" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="60">
+        <f>'02-NONFUNCTIONALREQUIREMENTS'!B43</f>
+        <v>0</v>
+      </c>
+      <c r="C45" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E43="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E43&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F43&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G43&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H43&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="46" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B46" s="61" t="str">
+    <row r="46" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="60">
+        <f>'02-NONFUNCTIONALREQUIREMENTS'!B44</f>
+        <v>0</v>
+      </c>
+      <c r="C46" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E44="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E44&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F44&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G44&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H44&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B47" s="61" t="str">
+    <row r="47" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="60">
+        <f>'02-NONFUNCTIONALREQUIREMENTS'!B45</f>
+        <v>0</v>
+      </c>
+      <c r="C47" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E45="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E45&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F45&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G45&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H45&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B48" s="61" t="str">
+    <row r="48" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="60">
+        <f>'02-NONFUNCTIONALREQUIREMENTS'!B46</f>
+        <v>0</v>
+      </c>
+      <c r="C48" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E46="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E46&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F46&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G46&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H46&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B49" s="61" t="str">
+    <row r="49" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="60">
+        <f>'02-NONFUNCTIONALREQUIREMENTS'!B47</f>
+        <v>0</v>
+      </c>
+      <c r="C49" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E47="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E47&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F47&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G47&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H47&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B50" s="61" t="str">
+    <row r="50" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="60">
+        <f>'02-NONFUNCTIONALREQUIREMENTS'!B48</f>
+        <v>0</v>
+      </c>
+      <c r="C50" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E48="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E48&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F48&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G48&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H48&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B51" s="61" t="str">
+    <row r="51" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="60">
+        <f>'02-NONFUNCTIONALREQUIREMENTS'!B49</f>
+        <v>0</v>
+      </c>
+      <c r="C51" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E49="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E49&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F49&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G49&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H49&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B52" s="61" t="str">
+    <row r="52" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="60">
+        <f>'02-NONFUNCTIONALREQUIREMENTS'!B50</f>
+        <v>0</v>
+      </c>
+      <c r="C52" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E50="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E50&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F50&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G50&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H50&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B53" s="61" t="str">
+    <row r="53" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="60">
+        <f>'02-NONFUNCTIONALREQUIREMENTS'!B51</f>
+        <v>0</v>
+      </c>
+      <c r="C53" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E51="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E51&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F51&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G51&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H51&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B54" s="61" t="str">
+    <row r="54" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="60">
+        <f>'02-NONFUNCTIONALREQUIREMENTS'!B52</f>
+        <v>0</v>
+      </c>
+      <c r="C54" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E52="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E52&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F52&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G52&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H52&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B55" s="61" t="str">
+    <row r="55" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="60">
+        <f>'02-NONFUNCTIONALREQUIREMENTS'!B53</f>
+        <v>0</v>
+      </c>
+      <c r="C55" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E53="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E53&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F53&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G53&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H53&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B56" s="61" t="str">
+    <row r="56" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="60">
+        <f>'02-NONFUNCTIONALREQUIREMENTS'!B54</f>
+        <v>0</v>
+      </c>
+      <c r="C56" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E54="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E54&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F54&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G54&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H54&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="57" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B57" s="61" t="str">
+    <row r="57" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="60">
+        <f>'02-NONFUNCTIONALREQUIREMENTS'!B55</f>
+        <v>0</v>
+      </c>
+      <c r="C57" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E55="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E55&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F55&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G55&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H55&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="58" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B58" s="61" t="str">
+    <row r="58" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="60">
+        <f>'02-NONFUNCTIONALREQUIREMENTS'!B56</f>
+        <v>0</v>
+      </c>
+      <c r="C58" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E56="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E56&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F56&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G56&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H56&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="59" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B59" s="61" t="str">
+    <row r="59" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="60">
+        <f>'02-NONFUNCTIONALREQUIREMENTS'!B57</f>
+        <v>0</v>
+      </c>
+      <c r="C59" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E57="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E57&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F57&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G57&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H57&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="60" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B60" s="61" t="str">
+    <row r="60" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="60">
+        <f>'02-NONFUNCTIONALREQUIREMENTS'!B58</f>
+        <v>0</v>
+      </c>
+      <c r="C60" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E58="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E58&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F58&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G58&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H58&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="61" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B61" s="61" t="str">
+    <row r="61" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C61" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E59="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E59&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F59&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G59&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H59&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="62" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B62" s="61" t="str">
+    <row r="62" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C62" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E60="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E60&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F60&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G60&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H60&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="63" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B63" s="61" t="str">
+    <row r="63" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C63" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E61="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E61&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F61&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G61&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H61&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="64" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B64" s="61" t="str">
+    <row r="64" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C64" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E62="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E62&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F62&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G62&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H62&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="65" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B65" s="61" t="str">
+    <row r="65" spans="3:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C65" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E63="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E63&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F63&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G63&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H63&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="66" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B66" s="61" t="str">
+    <row r="66" spans="3:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C66" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E64="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E64&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F64&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G64&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H64&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="67" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B67" s="61" t="str">
+    <row r="67" spans="3:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C67" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E65="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E65&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F65&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G65&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H65&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="68" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B68" s="61" t="str">
+    <row r="68" spans="3:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C68" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E66="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E66&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F66&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G66&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H66&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="69" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B69" s="61" t="str">
+    <row r="69" spans="3:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C69" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E67="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E67&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F67&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G67&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H67&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="70" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B70" s="61" t="str">
+    <row r="70" spans="3:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C70" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E68="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E68&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F68&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G68&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H68&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="71" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B71" s="61" t="str">
+    <row r="71" spans="3:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C71" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E69="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E69&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F69&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G69&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H69&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="72" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B72" s="61" t="str">
+    <row r="72" spans="3:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C72" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E70="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E70&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F70&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G70&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H70&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="73" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B73" s="61" t="str">
+    <row r="73" spans="3:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C73" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E71="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E71&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F71&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G71&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H71&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="74" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B74" s="61" t="str">
+    <row r="74" spans="3:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C74" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E72="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E72&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F72&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G72&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H72&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="75" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B75" s="61" t="str">
+    <row r="75" spans="3:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C75" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E73="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E73&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F73&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G73&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H73&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="76" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B76" s="61" t="str">
+    <row r="76" spans="3:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C76" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E74="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E74&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F74&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G74&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H74&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="77" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B77" s="61" t="str">
+    <row r="77" spans="3:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C77" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E75="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E75&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F75&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G75&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H75&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="78" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B78" s="61" t="str">
+    <row r="78" spans="3:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C78" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E76="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E76&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F76&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G76&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H76&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="79" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B79" s="61" t="str">
+    <row r="79" spans="3:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C79" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E77="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E77&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F77&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G77&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H77&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="80" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B80" s="61" t="str">
+    <row r="80" spans="3:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C80" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E78="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E78&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F78&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G78&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H78&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="81" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B81" s="61" t="str">
+    <row r="81" spans="3:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C81" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E79="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E79&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F79&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G79&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H79&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="82" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B82" s="61" t="str">
+    <row r="82" spans="3:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C82" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E80="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E80&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F80&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G80&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H80&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="83" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B83" s="61" t="str">
+    <row r="83" spans="3:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C83" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E81="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E81&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F81&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G81&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H81&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="84" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B84" s="61" t="str">
+    <row r="84" spans="3:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C84" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E82="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E82&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F82&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G82&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H82&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="85" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B85" s="61" t="str">
+    <row r="85" spans="3:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C85" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E83="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E83&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F83&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G83&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H83&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="86" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B86" s="61" t="str">
+    <row r="86" spans="3:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C86" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E84="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E84&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F84&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G84&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H84&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="87" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B87" s="61" t="str">
+    <row r="87" spans="3:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C87" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E85="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E85&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F85&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G85&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H85&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="88" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B88" s="61" t="str">
+    <row r="88" spans="3:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C88" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E86="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E86&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F86&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G86&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H86&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B89" s="62" t="str">
+    <row r="89" spans="3:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C89" s="62" t="str">
         <f>IF('[1]01 - Terms'!B80="","","|**"&amp;'[1]01 - Terms'!B80&amp;"**|"&amp;'[1]01 - Terms'!C80&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B90" s="62" t="str">
+    <row r="90" spans="3:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C90" s="62" t="str">
         <f>IF('[1]01 - Terms'!B81="","","|**"&amp;'[1]01 - Terms'!B81&amp;"**|"&amp;'[1]01 - Terms'!C81&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B91" s="62" t="str">
+    <row r="91" spans="3:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C91" s="62" t="str">
         <f>IF('[1]01 - Terms'!B82="","","|**"&amp;'[1]01 - Terms'!B82&amp;"**|"&amp;'[1]01 - Terms'!C82&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B92" s="62" t="str">
+    <row r="92" spans="3:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C92" s="62" t="str">
         <f>IF('[1]01 - Terms'!B83="","","|**"&amp;'[1]01 - Terms'!B83&amp;"**|"&amp;'[1]01 - Terms'!C83&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B93" s="62" t="str">
+    <row r="93" spans="3:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C93" s="62" t="str">
         <f>IF('[1]01 - Terms'!B84="","","|**"&amp;'[1]01 - Terms'!B84&amp;"**|"&amp;'[1]01 - Terms'!C84&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B94" s="62" t="str">
+    <row r="94" spans="3:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C94" s="62" t="str">
         <f>IF('[1]01 - Terms'!B85="","","|**"&amp;'[1]01 - Terms'!B85&amp;"**|"&amp;'[1]01 - Terms'!C85&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B95" s="62" t="str">
+    <row r="95" spans="3:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C95" s="62" t="str">
         <f>IF('[1]01 - Terms'!B86="","","|**"&amp;'[1]01 - Terms'!B86&amp;"**|"&amp;'[1]01 - Terms'!C86&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B96" s="62" t="str">
+    <row r="96" spans="3:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C96" s="62" t="str">
         <f>IF('[1]01 - Terms'!B87="","","|**"&amp;'[1]01 - Terms'!B87&amp;"**|"&amp;'[1]01 - Terms'!C87&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B97" s="62" t="str">
+    <row r="97" spans="3:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C97" s="62" t="str">
         <f>IF('[1]01 - Terms'!B88="","","|**"&amp;'[1]01 - Terms'!B88&amp;"**|"&amp;'[1]01 - Terms'!C88&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B98" s="62" t="str">
+    <row r="98" spans="3:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C98" s="62" t="str">
         <f>IF('[1]01 - Terms'!B89="","","|**"&amp;'[1]01 - Terms'!B89&amp;"**|"&amp;'[1]01 - Terms'!C89&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B99" s="62" t="str">
+    <row r="99" spans="3:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C99" s="62" t="str">
         <f>IF('[1]01 - Terms'!B90="","","|**"&amp;'[1]01 - Terms'!B90&amp;"**|"&amp;'[1]01 - Terms'!C90&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B100" s="62" t="str">
+    <row r="100" spans="3:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C100" s="62" t="str">
         <f>IF('[1]01 - Terms'!B91="","","|**"&amp;'[1]01 - Terms'!B91&amp;"**|"&amp;'[1]01 - Terms'!C91&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B101" s="62" t="str">
+    <row r="101" spans="3:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C101" s="62" t="str">
         <f>IF('[1]01 - Terms'!B92="","","|**"&amp;'[1]01 - Terms'!B92&amp;"**|"&amp;'[1]01 - Terms'!C92&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B102" s="62" t="str">
+    <row r="102" spans="3:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C102" s="62" t="str">
         <f>IF('[1]01 - Terms'!B93="","","|**"&amp;'[1]01 - Terms'!B93&amp;"**|"&amp;'[1]01 - Terms'!C93&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B103" s="62" t="str">
+    <row r="103" spans="3:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C103" s="62" t="str">
         <f>IF('[1]01 - Terms'!B94="","","|**"&amp;'[1]01 - Terms'!B94&amp;"**|"&amp;'[1]01 - Terms'!C94&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B104" s="62" t="str">
+    <row r="104" spans="3:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C104" s="62" t="str">
         <f>IF('[1]01 - Terms'!B95="","","|**"&amp;'[1]01 - Terms'!B95&amp;"**|"&amp;'[1]01 - Terms'!C95&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B105" s="62" t="str">
+    <row r="105" spans="3:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C105" s="62" t="str">
         <f>IF('[1]01 - Terms'!B96="","","|**"&amp;'[1]01 - Terms'!B96&amp;"**|"&amp;'[1]01 - Terms'!C96&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B106" s="62" t="str">
+    <row r="106" spans="3:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C106" s="62" t="str">
         <f>IF('[1]01 - Terms'!B97="","","|**"&amp;'[1]01 - Terms'!B97&amp;"**|"&amp;'[1]01 - Terms'!C97&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B107" s="62" t="str">
+    <row r="107" spans="3:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C107" s="62" t="str">
         <f>IF('[1]01 - Terms'!B98="","","|**"&amp;'[1]01 - Terms'!B98&amp;"**|"&amp;'[1]01 - Terms'!C98&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B108" s="62" t="str">
+    <row r="108" spans="3:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C108" s="62" t="str">
         <f>IF('[1]01 - Terms'!B99="","","|**"&amp;'[1]01 - Terms'!B99&amp;"**|"&amp;'[1]01 - Terms'!C99&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B109" s="62" t="str">
+    <row r="109" spans="3:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C109" s="62" t="str">
         <f>IF('[1]01 - Terms'!B100="","","|**"&amp;'[1]01 - Terms'!B100&amp;"**|"&amp;'[1]01 - Terms'!C100&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B110" s="62" t="str">
+    <row r="110" spans="3:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C110" s="62" t="str">
         <f>IF('[1]01 - Terms'!B101="","","|**"&amp;'[1]01 - Terms'!B101&amp;"**|"&amp;'[1]01 - Terms'!C101&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|")</f>
         <v/>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B5:B110" xr:uid="{A55E5BA5-AC83-0648-9D01-2CBE479B329D}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Usability"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ArchitectureDossier/spreadsheets/Architecture-NonFunctionalRequiremetns_v01.00.xlsx
+++ b/ArchitectureDossier/spreadsheets/Architecture-NonFunctionalRequiremetns_v01.00.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvain/Repositories/Public/ArchitectureTemplate/ArchitectureDossier/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73046E57-79E7-BF4C-8513-BA3FE1E9E713}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6084F8F7-41A0-9342-98A2-FD6F9BCB8A1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'00 - Technical Parameter'!$B$5:$F$57</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'02-NONFUNCTIONALREQUIREMENTS'!$A$3:$B$95</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'03-Markdown'!$B$5:$B$110</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'03-Markdown'!$B$5:$B$124</definedName>
     <definedName name="AREA">'00 - Technical Parameter'!$D$6:$D$57</definedName>
     <definedName name="CATEGORY">'00 - Technical Parameter'!#REF!</definedName>
     <definedName name="CRITICITY">'00 - Technical Parameter'!$H$6:$H$10</definedName>
@@ -4453,11 +4453,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD3A1F99-1460-534A-B38B-B8FA4397E1BA}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:C110"/>
+  <dimension ref="A1:C124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C17"/>
+      <selection activeCell="C7" sqref="C7:C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4500,7 +4499,7 @@
         <v>|---|---|---|---|</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="60" t="str">
         <f>'02-NONFUNCTIONALREQUIREMENTS'!B4</f>
         <v>Manageability</v>
@@ -4516,8 +4515,8 @@
         <v>Usability</v>
       </c>
       <c r="C7" s="61" t="str">
-        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E5="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E5&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F5&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G5&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H5&amp;"|")</f>
-        <v>|**PREFIX_NFR_2**|The SYSTEM allow the display of its WEB screens with a minimum resolution of 1024 * 768|Assumption|ESSENTIAL|</v>
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E5="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E5&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F5&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G5&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H5&amp;"|")</f>
+        <v>|**PREFIX_NFR_2**|The SYSTEM shall allow the display of its WEB screens with a minimum resolution of 1024 * 768|Assumption|ESSENTIAL|</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -4526,8 +4525,8 @@
         <v>Usability</v>
       </c>
       <c r="C8" s="61" t="str">
-        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E6="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E6&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F6&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G6&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H6&amp;"|")</f>
-        <v>|**PREFIX_NFR_3**|The SYSTEM allow the display of its WEB screens with the browser ** Chrome ** Version 75.0. on Windows 10 (64 Bits).|Assumption|MANDATORY|</v>
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E6="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E6&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F6&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G6&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H6&amp;"|")</f>
+        <v>|**PREFIX_NFR_3**|The SYSTEM shall allow the display of its WEB screens with the browser ** Chrome ** Version 75.0. on Windows 10 (64 Bits).|Assumption|MANDATORY|</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -4536,8 +4535,8 @@
         <v>Usability</v>
       </c>
       <c r="C9" s="61" t="str">
-        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E7="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E7&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F7&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G7&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H7&amp;"|")</f>
-        <v>|**PREFIX_NFR_4**|The SYSTEM be tested with a display of its WEB screens with the browser ** Firefox ** Version 68 on Windows 10 (64 Bits).|Assumption|ESSENTIAL|</v>
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E7="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E7&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F7&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G7&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H7&amp;"|")</f>
+        <v>|**PREFIX_NFR_4**|The SYSTEM shall be tested with a display of its WEB screens with the browser ** Firefox ** Version 68 on Windows 10 (64 Bits).|Assumption|ESSENTIAL|</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -4546,8 +4545,8 @@
         <v>Usability</v>
       </c>
       <c r="C10" s="61" t="str">
-        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E8="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E8&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F8&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G8&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H8&amp;"|")</f>
-        <v>|**PREFIX_NFR_5**|The SYSTEM be tested with a display of its WEB screens with the browser ** Safari ** Version 12 on MacOs Mojave.|Assumption|ESSENTIAL|</v>
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E8="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E8&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F8&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G8&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H8&amp;"|")</f>
+        <v>|**PREFIX_NFR_5**|The SYSTEM shall be tested with a display of its WEB screens with the browser ** Safari ** Version 12 on MacOs Mojave.|Assumption|ESSENTIAL|</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -4556,58 +4555,58 @@
         <v>Usability</v>
       </c>
       <c r="C11" s="61" t="str">
-        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E9="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E9&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F9&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G9&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H9&amp;"|")</f>
-        <v>|**PREFIX_NFR_6**|The SYSTEM allow the display of its WEB screens in a "responsive" approach allowing the management of 'Tablet' orientations|Assumption|MANDATORY|</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E9="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E9&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F9&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G9&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H9&amp;"|")</f>
+        <v>|**PREFIX_NFR_6**|The SYSTEM shall allow the display of its WEB screens in a "responsive" approach allowing the management of 'Tablet' orientations|Assumption|MANDATORY|</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="60" t="str">
         <f>'02-NONFUNCTIONALREQUIREMENTS'!B10</f>
         <v>Integrity</v>
       </c>
       <c r="C12" s="61" t="str">
-        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E10="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E10&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F10&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G10&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H10&amp;"|")</f>
-        <v>|**PREFIX_NFR_7**|The SYSTEM allow data segregation by client ("Multi-tenant")|Assumption|MANDATORY|</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E10="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E10&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F10&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G10&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H10&amp;"|")</f>
+        <v>|**PREFIX_NFR_7**|The SYSTEM shall allow data segregation by client ("Multi-tenant")|Assumption|MANDATORY|</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="60" t="str">
         <f>'02-NONFUNCTIONALREQUIREMENTS'!B11</f>
         <v>Internationalisation</v>
       </c>
       <c r="C13" s="61" t="str">
-        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E11="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E11&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F11&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G11&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H11&amp;"|")</f>
-        <v>|**PREFIX_NFR_8**|The SYSTEM display all labels of its interfaces in ** French ** by default|Assumption|MANDATORY|</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="32" hidden="1" x14ac:dyDescent="0.2">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E11="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E11&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F11&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G11&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H11&amp;"|")</f>
+        <v>|**PREFIX_NFR_8**|The SYSTEM shall display all labels of its interfaces in ** French ** by default|Assumption|MANDATORY|</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="60" t="str">
         <f>'02-NONFUNCTIONALREQUIREMENTS'!B12</f>
         <v>Internationalisation</v>
       </c>
       <c r="C14" s="61" t="str">
-        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E12="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E12&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F12&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G12&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H12&amp;"|")</f>
-        <v>|**PREFIX_NFR_9**|The SYSTEM allow the display of the labels of its interfaces in other languages(Right-To-Left) by loading a configuration file on the server, depending on the configuration of the calling browser.|Assumption|OPTIONAL|</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E12="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E12&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F12&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G12&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H12&amp;"|")</f>
+        <v>|**PREFIX_NFR_9**|The SYSTEM shall allow the display of the labels of its interfaces in other languages(Right-To-Left) by loading a configuration file on the server, depending on the configuration of the calling browser.|Assumption|OPTIONAL|</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="60" t="str">
         <f>'02-NONFUNCTIONALREQUIREMENTS'!B13</f>
         <v>Internationalisation</v>
       </c>
       <c r="C15" s="61" t="str">
-        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E13="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E13&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F13&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G13&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H13&amp;"|")</f>
-        <v>|**PREFIX_NFR_10**|The SYSTEM stocker et afficher les éléments journalisés sur la plateforme en **anglais**|Assumption|ESSENTIAL|</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E13="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E13&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F13&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G13&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H13&amp;"|")</f>
+        <v>|**PREFIX_NFR_10**|The SYSTEM shall stocker et afficher les éléments journalisés sur la plateforme en **anglais**|Assumption|ESSENTIAL|</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="60" t="str">
         <f>'02-NONFUNCTIONALREQUIREMENTS'!B14</f>
         <v>Integrity</v>
       </c>
       <c r="C16" s="61" t="str">
-        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E14="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E14&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F14&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G14&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H14&amp;"|")</f>
-        <v>|**PREFIX_NFR_11**|The SYSTEM stocker toutes les information de date/temps  selon la zone  **UTC Zero**|Assumption|MANDATORY|</v>
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E14="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E14&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F14&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G14&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H14&amp;"|")</f>
+        <v>|**PREFIX_NFR_11**|The SYSTEM shall stocker toutes les information de date/temps  selon la zone  **UTC Zero**|Assumption|MANDATORY|</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="16" x14ac:dyDescent="0.2">
@@ -4616,748 +4615,826 @@
         <v>Usability</v>
       </c>
       <c r="C17" s="61" t="str">
-        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E15="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E15&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F15&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G15&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H15&amp;"|")</f>
-        <v>|**PREFIX_NFR_12**|The SYSTEM Afficher les informations de date/temps dans le fuseau horaire configuré sur le navigateur de l'utilisateur.|Assumption|ESSENTIAL|</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E15="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E15&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F15&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G15&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H15&amp;"|")</f>
+        <v>|**PREFIX_NFR_12**|The SYSTEM shall Afficher les informations de date/temps dans le fuseau horaire configuré sur le navigateur de l'utilisateur.|Assumption|ESSENTIAL|</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" s="60" t="str">
         <f>'02-NONFUNCTIONALREQUIREMENTS'!B16</f>
         <v>Intégrité</v>
       </c>
       <c r="C18" s="61" t="str">
-        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E16="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E16&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F16&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G16&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H16&amp;"|")</f>
-        <v>|**PREFIX_NFR_13**|The SYSTEM stocker les informations de date/temps au format **ISO 8601**  Exemple : **2017-09-15T17:27:00Z**|Assumption|MANDATORY|</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E16="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E16&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F16&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G16&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H16&amp;"|")</f>
+        <v>|**PREFIX_NFR_13**|The SYSTEM shall stocker les informations de date/temps au format **ISO 8601**  Exemple : **2017-09-15T17:27:00Z**|Assumption|MANDATORY|</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B19" s="60" t="str">
         <f>'02-NONFUNCTIONALREQUIREMENTS'!B17</f>
         <v>Corporate</v>
       </c>
       <c r="C19" s="61" t="str">
-        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E17="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E17&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F17&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G17&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H17&amp;"|")</f>
-        <v>|**PREFIX_NFR_14**|The SYSTEM doit être localisé en Union Européenne|Assumption|MANDATORY|</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E17="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E17&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F17&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G17&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H17&amp;"|")</f>
+        <v>|**PREFIX_NFR_14**|The SYSTEM shall doit être localisé en Union Européenne|Assumption|MANDATORY|</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B20" s="60" t="str">
         <f>'02-NONFUNCTIONALREQUIREMENTS'!B18</f>
         <v>Integrity</v>
       </c>
       <c r="C20" s="61" t="str">
-        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E18="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E18&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F18&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G18&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H18&amp;"|")</f>
-        <v>|**PREFIX_NFR_15**|The SYSTEM stocker les informations de codes pays  au format **ISO  3166**  Exemple : **fr**|Assumption|MANDATORY|</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E18="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E18&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F18&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G18&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H18&amp;"|")</f>
+        <v>|**PREFIX_NFR_15**|The SYSTEM shall stocker les informations de codes pays  au format **ISO  3166**  Exemple : **fr**|Assumption|MANDATORY|</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B21" s="60" t="str">
         <f>'02-NONFUNCTIONALREQUIREMENTS'!B19</f>
         <v>Intégrité</v>
       </c>
       <c r="C21" s="61" t="str">
-        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E19="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E19&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F19&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G19&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H19&amp;"|")</f>
-        <v>|**PREFIX_NFR_16**|The SYSTEM stocker les informations d'unités monétaires au format **ISO 4217**  Exemple : **EUR**|Assumption|MANDATORY|</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E19="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E19&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F19&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G19&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H19&amp;"|")</f>
+        <v>|**PREFIX_NFR_16**|The SYSTEM shall stocker les informations d'unités monétaires au format **ISO 4217**  Exemple : **EUR**|Assumption|MANDATORY|</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B22" s="60" t="str">
         <f>'02-NONFUNCTIONALREQUIREMENTS'!B20</f>
         <v>Capacité</v>
       </c>
       <c r="C22" s="61" t="str">
-        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E20="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E20&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F20&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G20&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H20&amp;"|")</f>
-        <v>|**PREFIX_NFR_17**|The SYSTEM accueillir  YYYY utilisateurs **potentiels**  |Assumption|MANDATORY|</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E20="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E20&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F20&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G20&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H20&amp;"|")</f>
+        <v>|**PREFIX_NFR_17**|The SYSTEM shall accueillir  YYYY utilisateurs **potentiels**  |Assumption|MANDATORY|</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B23" s="60" t="str">
         <f>'02-NONFUNCTIONALREQUIREMENTS'!B21</f>
         <v>Capacité</v>
       </c>
       <c r="C23" s="61" t="str">
-        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E21="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E21&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F21&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G21&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H21&amp;"|")</f>
-        <v>|**PREFIX_NFR_18**|The SYSTEM accueillir  des utilisateurs **courants** (Connectés au système, mais pas forcément actifs) à hauteur de 10% des utilisateurs potentiels|Assumption|ESSENTIAL|</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E21="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E21&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F21&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G21&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H21&amp;"|")</f>
+        <v>|**PREFIX_NFR_18**|The SYSTEM shall accueillir  des utilisateurs **courants** (Connectés au système, mais pas forcément actifs) à hauteur de 10% des utilisateurs potentiels|Assumption|ESSENTIAL|</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B24" s="60" t="str">
         <f>'02-NONFUNCTIONALREQUIREMENTS'!B22</f>
         <v>Capacité</v>
       </c>
       <c r="C24" s="61" t="str">
-        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E22="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E22&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F22&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G22&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H22&amp;"|")</f>
-        <v>|**PREFIX_NFR_19**|The SYSTEM accueillir  des utilisateurs **actifs/concurrents**   à hauteur de 1% des utilisateurs potentiels|Assumption|ESSENTIAL|</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E22="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E22&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F22&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G22&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H22&amp;"|")</f>
+        <v>|**PREFIX_NFR_19**|The SYSTEM shall accueillir  des utilisateurs **actifs/concurrents**   à hauteur de 1% des utilisateurs potentiels|Assumption|ESSENTIAL|</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B25" s="60" t="str">
         <f>'02-NONFUNCTIONALREQUIREMENTS'!B23</f>
         <v>Capacité</v>
       </c>
       <c r="C25" s="61" t="str">
-        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E23="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E23&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F23&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G23&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H23&amp;"|")</f>
-        <v>|**PREFIX_NFR_20**|The SYSTEM pouvoir répondre à **2 sollicitations** (API) concurrentes par des systèmes externes |Assumption|MANDATORY|</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" ht="32" hidden="1" x14ac:dyDescent="0.2">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E23="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E23&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F23&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G23&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H23&amp;"|")</f>
+        <v>|**PREFIX_NFR_20**|The SYSTEM shall pouvoir répondre à **2 sollicitations** (API) concurrentes par des systèmes externes |Assumption|MANDATORY|</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B26" s="60" t="str">
         <f>'02-NONFUNCTIONALREQUIREMENTS'!B24</f>
         <v>Sécurité</v>
       </c>
       <c r="C26" s="61" t="str">
-        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E24="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E24&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F24&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G24&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H24&amp;"|")</f>
-        <v>|**PREFIX_NFR_21**|The SYSTEM reposer sur un référentiel des identités fourni par un tiers externe (OpenID Connect) pour l'ensemble de ses utilisateurs (Interne/Externe) (Authentification: Identification de haut niveau : Accès à l'application) |Assumption|MANDATORY|</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E24="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E24&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F24&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G24&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H24&amp;"|")</f>
+        <v>|**PREFIX_NFR_21**|The SYSTEM shall reposer sur un référentiel des identités fourni par un tiers externe (OpenID Connect) pour l'ensemble de ses utilisateurs (Interne/Externe) (Authentification: Identification de haut niveau : Accès à l'application) |Assumption|MANDATORY|</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B27" s="60" t="str">
         <f>'02-NONFUNCTIONALREQUIREMENTS'!B25</f>
         <v>Sécurité</v>
       </c>
       <c r="C27" s="61" t="str">
-        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E25="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E25&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F25&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G25&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H25&amp;"|")</f>
-        <v>|**PREFIX_NFR_22**|The SYSTEM reposer sur un gestionnaire  des identités interne au SYSTEME permettant d'associer des permissions à un utilisateur|Assumption|MANDATORY|</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" ht="32" hidden="1" x14ac:dyDescent="0.2">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E25="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E25&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F25&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G25&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H25&amp;"|")</f>
+        <v>|**PREFIX_NFR_22**|The SYSTEM shall reposer sur un gestionnaire  des identités interne au SYSTEME permettant d'associer des permissions à un utilisateur|Assumption|MANDATORY|</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B28" s="60" t="str">
         <f>'02-NONFUNCTIONALREQUIREMENTS'!B26</f>
         <v>Sécurité</v>
       </c>
       <c r="C28" s="61" t="str">
-        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E26="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E26&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F26&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G26&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H26&amp;"|")</f>
-        <v>|**PREFIX_NFR_23**|The SYSTEM reposer sur le protocole https (Combinaison entre HTTP et un protocole de chiffrement) pour opérer ses échanges entre les clients et le serveur.|Assumption|MANDATORY|</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" ht="32" hidden="1" x14ac:dyDescent="0.2">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E26="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E26&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F26&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G26&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H26&amp;"|")</f>
+        <v>|**PREFIX_NFR_23**|The SYSTEM shall reposer sur le protocole https (Combinaison entre HTTP et un protocole de chiffrement) pour opérer ses échanges entre les clients et le serveur.|Assumption|MANDATORY|</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B29" s="60" t="str">
         <f>'02-NONFUNCTIONALREQUIREMENTS'!B27</f>
         <v>Disponibilité</v>
       </c>
       <c r="C29" s="61" t="str">
-        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E27="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E27&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F27&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G27&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H27&amp;"|")</f>
-        <v>|**PREFIX_NFR_24**|The SYSTEM proposer une plage de service remontant une disponibilité  correspondant a un SLA de 99.9% en dehors des interruptions pour maintenance programmée|Assumption|MANDATORY|</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E27="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E27&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F27&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G27&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H27&amp;"|")</f>
+        <v>|**PREFIX_NFR_24**|The SYSTEM shall proposer une plage de service remontant une disponibilité  correspondant a un SLA de 99.9% en dehors des interruptions pour maintenance programmée|Assumption|MANDATORY|</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B30" s="60" t="str">
         <f>'02-NONFUNCTIONALREQUIREMENTS'!B28</f>
         <v>Disponibilité</v>
       </c>
       <c r="C30" s="61" t="str">
-        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E28="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E28&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F28&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G28&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H28&amp;"|")</f>
-        <v>|**PREFIX_NFR_25**|The SYSTEM programmer des plages de maintenance d'une durée de 4h par mois|Assumption|ESSENTIAL|</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E28="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E28&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F28&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G28&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H28&amp;"|")</f>
+        <v>|**PREFIX_NFR_25**|The SYSTEM shall programmer des plages de maintenance d'une durée de 4h par mois|Assumption|ESSENTIAL|</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B31" s="60" t="str">
         <f>'02-NONFUNCTIONALREQUIREMENTS'!B29</f>
         <v>Performance</v>
       </c>
       <c r="C31" s="61" t="str">
-        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E29="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E29&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F29&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G29&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H29&amp;"|")</f>
-        <v>|**PREFIX_NFR_26**|The SYSTEM authentifier un utilisateur anonyme en 30 secondes|Assumption|ESSENTIAL|</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E29="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E29&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F29&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G29&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H29&amp;"|")</f>
+        <v>|**PREFIX_NFR_26**|The SYSTEM shall authentifier un utilisateur anonyme en 30 secondes|Assumption|ESSENTIAL|</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B32" s="60" t="str">
         <f>'02-NONFUNCTIONALREQUIREMENTS'!B30</f>
         <v>Performance</v>
       </c>
       <c r="C32" s="61" t="str">
-        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E30="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E30&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F30&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G30&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H30&amp;"|")</f>
-        <v>|**PREFIX_NFR_27**|The SYSTEM afficher 90% des pages Web en moins de 3 secondes|Assumption|ESSENTIAL|</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E30="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E30&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F30&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G30&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H30&amp;"|")</f>
+        <v>|**PREFIX_NFR_27**|The SYSTEM shall afficher 90% des pages Web en moins de 3 secondes|Assumption|ESSENTIAL|</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B33" s="60" t="str">
         <f>'02-NONFUNCTIONALREQUIREMENTS'!B31</f>
         <v>Performance</v>
       </c>
       <c r="C33" s="61" t="str">
-        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E31="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E31&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F31&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G31&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H31&amp;"|")</f>
-        <v>|**PREFIX_NFR_28**|The SYSTEM afficher les pages web en moins de 15 secondes|Assumption|ESSENTIAL|</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E31="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E31&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F31&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G31&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H31&amp;"|")</f>
+        <v>|**PREFIX_NFR_28**|The SYSTEM shall afficher les pages web en moins de 15 secondes|Assumption|ESSENTIAL|</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B34" s="60" t="str">
         <f>'02-NONFUNCTIONALREQUIREMENTS'!B32</f>
         <v>Intégrité</v>
       </c>
       <c r="C34" s="61" t="str">
-        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E32="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E32&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F32&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G32&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H32&amp;"|")</f>
-        <v>|**PREFIX_NFR_29**|The SYSTEM mettre en place des mécanismes permettant d'optimiser la qualité des données entrantes (Contrôle d'intégrité, Liste de valeurs finies)|Assumption|ESSENTIAL|</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E32="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E32&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F32&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G32&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H32&amp;"|")</f>
+        <v>|**PREFIX_NFR_29**|The SYSTEM shall mettre en place des mécanismes permettant d'optimiser la qualité des données entrantes (Contrôle d'intégrité, Liste de valeurs finies)|Assumption|ESSENTIAL|</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B35" s="60" t="str">
         <f>'02-NONFUNCTIONALREQUIREMENTS'!B33</f>
         <v>Intégrité</v>
       </c>
       <c r="C35" s="61" t="str">
-        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E33="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E33&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F33&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G33&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H33&amp;"|")</f>
-        <v>|**PREFIX_NFR_30**|The SYSTEM journaliser les évènements 'métier' (opérations sur les données) à des fins de traçabilité|Assumption|MANDATORY|</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E33="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E33&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F33&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G33&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H33&amp;"|")</f>
+        <v>|**PREFIX_NFR_30**|The SYSTEM shall journaliser les évènements 'métier' (opérations sur les données) à des fins de traçabilité|Assumption|MANDATORY|</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B36" s="60" t="str">
         <f>'02-NONFUNCTIONALREQUIREMENTS'!B34</f>
         <v>Manageabilité</v>
       </c>
       <c r="C36" s="61" t="str">
-        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E34="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E34&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F34&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G34&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H34&amp;"|")</f>
-        <v>|**PREFIX_NFR_31**|The SYSTEM  promouvoir le couplage faible entre composants (internes et externes)|Assumption|MANDATORY|</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E34="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E34&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F34&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G34&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H34&amp;"|")</f>
+        <v>|**PREFIX_NFR_31**|The SYSTEM shall  promouvoir le couplage faible entre composants (internes et externes)|Assumption|MANDATORY|</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B37" s="60" t="str">
         <f>'02-NONFUNCTIONALREQUIREMENTS'!B35</f>
         <v>Performance</v>
       </c>
       <c r="C37" s="61" t="str">
-        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E35="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E35&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F35&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G35&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H35&amp;"|")</f>
-        <v>|**PREFIX_NFR_32**|The SYSTEM absorber un pic de charge correspondant à **25%** de la charge totale concentrée sur un pic d'1heure.|Assumption|ESSENTIAL|</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E35="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E35&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F35&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G35&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H35&amp;"|")</f>
+        <v>|**PREFIX_NFR_32**|The SYSTEM shall absorber un pic de charge correspondant à **25%** de la charge totale concentrée sur un pic d'1heure.|Assumption|ESSENTIAL|</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B38" s="60" t="str">
         <f>'02-NONFUNCTIONALREQUIREMENTS'!B36</f>
         <v>Portabilité</v>
       </c>
       <c r="C38" s="61" t="str">
-        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E36="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E36&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F36&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G36&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H36&amp;"|")</f>
-        <v>|**PREFIX_NFR_33**|The SYSTEM faciliter la portabilité de la solution vers différents systèmes d'hébergement (Fournisseur Cloud, Sur site)|Assumption|MANDATORY|</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E36="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E36&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F36&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G36&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H36&amp;"|")</f>
+        <v>|**PREFIX_NFR_33**|The SYSTEM shall faciliter la portabilité de la solution vers différents systèmes d'hébergement (Fournisseur Cloud, Sur site)|Assumption|MANDATORY|</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B39" s="60" t="str">
         <f>'02-NONFUNCTIONALREQUIREMENTS'!B37</f>
         <v>Scalabilité</v>
       </c>
       <c r="C39" s="61" t="str">
-        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E37="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E37&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F37&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G37&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H37&amp;"|")</f>
-        <v>|**PREFIX_NFR_34**|The SYSTEM permettre d'adapter sa configuration à la charge utilisateurs/systèmes (Croissance/Décroissance)|Assumption|MANDATORY|</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E37="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E37&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F37&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G37&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H37&amp;"|")</f>
+        <v>|**PREFIX_NFR_34**|The SYSTEM shall permettre d'adapter sa configuration à la charge utilisateurs/systèmes (Croissance/Décroissance)|Assumption|MANDATORY|</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B40" s="60" t="str">
         <f>'02-NONFUNCTIONALREQUIREMENTS'!B38</f>
         <v>Intégrité</v>
       </c>
       <c r="C40" s="61" t="str">
-        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E38="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E38&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F38&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G38&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H38&amp;"|")</f>
-        <v>|**PREFIX_NFR_35**|The SYSTEM journaliser les évènements techniques|Assumption|MANDATORY|</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E38="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E38&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F38&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G38&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H38&amp;"|")</f>
+        <v>|**PREFIX_NFR_35**|The SYSTEM shall journaliser les évènements techniques|Assumption|MANDATORY|</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B41" s="60">
         <f>'02-NONFUNCTIONALREQUIREMENTS'!B39</f>
         <v>0</v>
       </c>
       <c r="C41" s="61" t="str">
-        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E39="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E39&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F39&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G39&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H39&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E39="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E39&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F39&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G39&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H39&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B42" s="60">
         <f>'02-NONFUNCTIONALREQUIREMENTS'!B40</f>
         <v>0</v>
       </c>
       <c r="C42" s="61" t="str">
-        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E40="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E40&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F40&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G40&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H40&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E40="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E40&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F40&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G40&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H40&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B43" s="60">
         <f>'02-NONFUNCTIONALREQUIREMENTS'!B41</f>
         <v>0</v>
       </c>
       <c r="C43" s="61" t="str">
-        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E41="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E41&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F41&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G41&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H41&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E41="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E41&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F41&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G41&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H41&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B44" s="60">
         <f>'02-NONFUNCTIONALREQUIREMENTS'!B42</f>
         <v>0</v>
       </c>
       <c r="C44" s="61" t="str">
-        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E42="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E42&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F42&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G42&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H42&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E42="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E42&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F42&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G42&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H42&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B45" s="60">
         <f>'02-NONFUNCTIONALREQUIREMENTS'!B43</f>
         <v>0</v>
       </c>
       <c r="C45" s="61" t="str">
-        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E43="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E43&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F43&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G43&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H43&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E43="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E43&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F43&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G43&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H43&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B46" s="60">
         <f>'02-NONFUNCTIONALREQUIREMENTS'!B44</f>
         <v>0</v>
       </c>
       <c r="C46" s="61" t="str">
-        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E44="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E44&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F44&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G44&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H44&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E44="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E44&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F44&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G44&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H44&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B47" s="60">
         <f>'02-NONFUNCTIONALREQUIREMENTS'!B45</f>
         <v>0</v>
       </c>
       <c r="C47" s="61" t="str">
-        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E45="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E45&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F45&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G45&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H45&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E45="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E45&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F45&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G45&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H45&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B48" s="60">
         <f>'02-NONFUNCTIONALREQUIREMENTS'!B46</f>
         <v>0</v>
       </c>
       <c r="C48" s="61" t="str">
-        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E46="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E46&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F46&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G46&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H46&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E46="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E46&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F46&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G46&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H46&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B49" s="60">
         <f>'02-NONFUNCTIONALREQUIREMENTS'!B47</f>
         <v>0</v>
       </c>
       <c r="C49" s="61" t="str">
-        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E47="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E47&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F47&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G47&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H47&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E47="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E47&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F47&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G47&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H47&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B50" s="60">
         <f>'02-NONFUNCTIONALREQUIREMENTS'!B48</f>
         <v>0</v>
       </c>
       <c r="C50" s="61" t="str">
-        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E48="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E48&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F48&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G48&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H48&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E48="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E48&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F48&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G48&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H48&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B51" s="60">
         <f>'02-NONFUNCTIONALREQUIREMENTS'!B49</f>
         <v>0</v>
       </c>
       <c r="C51" s="61" t="str">
-        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E49="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E49&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F49&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G49&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H49&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E49="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E49&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F49&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G49&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H49&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B52" s="60">
         <f>'02-NONFUNCTIONALREQUIREMENTS'!B50</f>
         <v>0</v>
       </c>
       <c r="C52" s="61" t="str">
-        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E50="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E50&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F50&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G50&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H50&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E50="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E50&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F50&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G50&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H50&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B53" s="60">
         <f>'02-NONFUNCTIONALREQUIREMENTS'!B51</f>
         <v>0</v>
       </c>
       <c r="C53" s="61" t="str">
-        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E51="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E51&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F51&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G51&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H51&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E51="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E51&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F51&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G51&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H51&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B54" s="60">
         <f>'02-NONFUNCTIONALREQUIREMENTS'!B52</f>
         <v>0</v>
       </c>
       <c r="C54" s="61" t="str">
-        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E52="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E52&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F52&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G52&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H52&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E52="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E52&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F52&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G52&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H52&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B55" s="60">
         <f>'02-NONFUNCTIONALREQUIREMENTS'!B53</f>
         <v>0</v>
       </c>
       <c r="C55" s="61" t="str">
-        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E53="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E53&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F53&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G53&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H53&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E53="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E53&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F53&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G53&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H53&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B56" s="60">
         <f>'02-NONFUNCTIONALREQUIREMENTS'!B54</f>
         <v>0</v>
       </c>
       <c r="C56" s="61" t="str">
-        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E54="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E54&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F54&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G54&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H54&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E54="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E54&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F54&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G54&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H54&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B57" s="60">
         <f>'02-NONFUNCTIONALREQUIREMENTS'!B55</f>
         <v>0</v>
       </c>
       <c r="C57" s="61" t="str">
-        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E55="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E55&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F55&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G55&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H55&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E55="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E55&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F55&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G55&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H55&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B58" s="60">
         <f>'02-NONFUNCTIONALREQUIREMENTS'!B56</f>
         <v>0</v>
       </c>
       <c r="C58" s="61" t="str">
-        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E56="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E56&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F56&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G56&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H56&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E56="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E56&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F56&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G56&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H56&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B59" s="60">
         <f>'02-NONFUNCTIONALREQUIREMENTS'!B57</f>
         <v>0</v>
       </c>
       <c r="C59" s="61" t="str">
-        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E57="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E57&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F57&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G57&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H57&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E57="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E57&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F57&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G57&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H57&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B60" s="60">
         <f>'02-NONFUNCTIONALREQUIREMENTS'!B58</f>
         <v>0</v>
       </c>
       <c r="C60" s="61" t="str">
-        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E58="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E58&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F58&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G58&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H58&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E58="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E58&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F58&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G58&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H58&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="C61" s="61" t="str">
-        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E59="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E59&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F59&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G59&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H59&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E59="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E59&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F59&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G59&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H59&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="C62" s="61" t="str">
-        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E60="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E60&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F60&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G60&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H60&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E60="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E60&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F60&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G60&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H60&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="C63" s="61" t="str">
-        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E61="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E61&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F61&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G61&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H61&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="2:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E61="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E61&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F61&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G61&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H61&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="C64" s="61" t="str">
-        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E62="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E62&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F62&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G62&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H62&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="3:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E62="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E62&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F62&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G62&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H62&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="3:3" ht="16" x14ac:dyDescent="0.2">
       <c r="C65" s="61" t="str">
-        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E63="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E63&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F63&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G63&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H63&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="3:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E63="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E63&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F63&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G63&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H63&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="3:3" ht="16" x14ac:dyDescent="0.2">
       <c r="C66" s="61" t="str">
-        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E64="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E64&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F64&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G64&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H64&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="3:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E64="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E64&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F64&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G64&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H64&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="3:3" ht="16" x14ac:dyDescent="0.2">
       <c r="C67" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E65="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E65&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F65&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G65&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H65&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="68" spans="3:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:3" ht="16" x14ac:dyDescent="0.2">
       <c r="C68" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E66="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E66&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F66&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G66&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H66&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="69" spans="3:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:3" ht="16" x14ac:dyDescent="0.2">
       <c r="C69" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E67="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E67&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F67&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G67&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H67&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="70" spans="3:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:3" ht="16" x14ac:dyDescent="0.2">
       <c r="C70" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E68="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E68&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F68&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G68&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H68&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="71" spans="3:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:3" ht="16" x14ac:dyDescent="0.2">
       <c r="C71" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E69="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E69&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F69&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G69&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H69&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="72" spans="3:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:3" ht="16" x14ac:dyDescent="0.2">
       <c r="C72" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E70="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E70&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F70&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G70&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H70&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="73" spans="3:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:3" ht="16" x14ac:dyDescent="0.2">
       <c r="C73" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E71="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E71&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F71&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G71&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H71&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="74" spans="3:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:3" ht="16" x14ac:dyDescent="0.2">
       <c r="C74" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E72="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E72&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F72&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G72&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H72&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="75" spans="3:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:3" ht="16" x14ac:dyDescent="0.2">
       <c r="C75" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E73="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E73&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F73&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G73&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H73&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="76" spans="3:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:3" ht="16" x14ac:dyDescent="0.2">
       <c r="C76" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E74="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E74&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F74&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G74&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H74&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="77" spans="3:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:3" ht="16" x14ac:dyDescent="0.2">
       <c r="C77" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E75="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E75&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F75&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G75&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H75&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="78" spans="3:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:3" ht="16" x14ac:dyDescent="0.2">
       <c r="C78" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E76="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E76&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F76&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G76&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H76&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="79" spans="3:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:3" ht="16" x14ac:dyDescent="0.2">
       <c r="C79" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E77="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E77&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F77&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G77&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H77&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="80" spans="3:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:3" ht="16" x14ac:dyDescent="0.2">
       <c r="C80" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E78="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E78&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F78&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G78&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H78&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="81" spans="3:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:3" ht="16" x14ac:dyDescent="0.2">
       <c r="C81" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E79="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E79&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F79&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G79&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H79&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="82" spans="3:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:3" ht="16" x14ac:dyDescent="0.2">
       <c r="C82" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E80="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E80&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F80&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G80&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H80&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="83" spans="3:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:3" ht="16" x14ac:dyDescent="0.2">
       <c r="C83" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E81="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E81&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F81&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G81&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H81&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="84" spans="3:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:3" ht="16" x14ac:dyDescent="0.2">
       <c r="C84" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E82="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E82&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F82&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G82&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H82&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="85" spans="3:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:3" ht="16" x14ac:dyDescent="0.2">
       <c r="C85" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E83="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E83&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F83&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G83&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H83&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="86" spans="3:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:3" ht="16" x14ac:dyDescent="0.2">
       <c r="C86" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E84="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E84&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F84&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G84&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H84&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="87" spans="3:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:3" ht="16" x14ac:dyDescent="0.2">
       <c r="C87" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E85="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E85&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F85&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G85&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H85&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="88" spans="3:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:3" ht="16" x14ac:dyDescent="0.2">
       <c r="C88" s="61" t="str">
         <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E86="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E86&amp;"**|The SYSTEM "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F86&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G86&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H86&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="89" spans="3:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C89" s="62" t="str">
         <f>IF('[1]01 - Terms'!B80="","","|**"&amp;'[1]01 - Terms'!B80&amp;"**|"&amp;'[1]01 - Terms'!C80&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="90" spans="3:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C90" s="62" t="str">
         <f>IF('[1]01 - Terms'!B81="","","|**"&amp;'[1]01 - Terms'!B81&amp;"**|"&amp;'[1]01 - Terms'!C81&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="91" spans="3:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C91" s="62" t="str">
         <f>IF('[1]01 - Terms'!B82="","","|**"&amp;'[1]01 - Terms'!B82&amp;"**|"&amp;'[1]01 - Terms'!C82&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="92" spans="3:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C92" s="62" t="str">
         <f>IF('[1]01 - Terms'!B83="","","|**"&amp;'[1]01 - Terms'!B83&amp;"**|"&amp;'[1]01 - Terms'!C83&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="93" spans="3:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C93" s="62" t="str">
         <f>IF('[1]01 - Terms'!B84="","","|**"&amp;'[1]01 - Terms'!B84&amp;"**|"&amp;'[1]01 - Terms'!C84&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="94" spans="3:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C94" s="62" t="str">
         <f>IF('[1]01 - Terms'!B85="","","|**"&amp;'[1]01 - Terms'!B85&amp;"**|"&amp;'[1]01 - Terms'!C85&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="95" spans="3:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C95" s="62" t="str">
         <f>IF('[1]01 - Terms'!B86="","","|**"&amp;'[1]01 - Terms'!B86&amp;"**|"&amp;'[1]01 - Terms'!C86&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="96" spans="3:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C96" s="62" t="str">
         <f>IF('[1]01 - Terms'!B87="","","|**"&amp;'[1]01 - Terms'!B87&amp;"**|"&amp;'[1]01 - Terms'!C87&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="97" spans="3:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C97" s="62" t="str">
         <f>IF('[1]01 - Terms'!B88="","","|**"&amp;'[1]01 - Terms'!B88&amp;"**|"&amp;'[1]01 - Terms'!C88&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="98" spans="3:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C98" s="62" t="str">
         <f>IF('[1]01 - Terms'!B89="","","|**"&amp;'[1]01 - Terms'!B89&amp;"**|"&amp;'[1]01 - Terms'!C89&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="99" spans="3:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C99" s="62" t="str">
         <f>IF('[1]01 - Terms'!B90="","","|**"&amp;'[1]01 - Terms'!B90&amp;"**|"&amp;'[1]01 - Terms'!C90&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="100" spans="3:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C100" s="62" t="str">
         <f>IF('[1]01 - Terms'!B91="","","|**"&amp;'[1]01 - Terms'!B91&amp;"**|"&amp;'[1]01 - Terms'!C91&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="101" spans="3:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C101" s="62" t="str">
         <f>IF('[1]01 - Terms'!B92="","","|**"&amp;'[1]01 - Terms'!B92&amp;"**|"&amp;'[1]01 - Terms'!C92&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="102" spans="3:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C102" s="62" t="str">
         <f>IF('[1]01 - Terms'!B93="","","|**"&amp;'[1]01 - Terms'!B93&amp;"**|"&amp;'[1]01 - Terms'!C93&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="103" spans="3:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C103" s="62" t="str">
         <f>IF('[1]01 - Terms'!B94="","","|**"&amp;'[1]01 - Terms'!B94&amp;"**|"&amp;'[1]01 - Terms'!C94&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="104" spans="3:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C104" s="62" t="str">
         <f>IF('[1]01 - Terms'!B95="","","|**"&amp;'[1]01 - Terms'!B95&amp;"**|"&amp;'[1]01 - Terms'!C95&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="105" spans="3:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C105" s="62" t="str">
         <f>IF('[1]01 - Terms'!B96="","","|**"&amp;'[1]01 - Terms'!B96&amp;"**|"&amp;'[1]01 - Terms'!C96&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="106" spans="3:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C106" s="62" t="str">
         <f>IF('[1]01 - Terms'!B97="","","|**"&amp;'[1]01 - Terms'!B97&amp;"**|"&amp;'[1]01 - Terms'!C97&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="107" spans="3:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C107" s="62" t="str">
         <f>IF('[1]01 - Terms'!B98="","","|**"&amp;'[1]01 - Terms'!B98&amp;"**|"&amp;'[1]01 - Terms'!C98&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="108" spans="3:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C108" s="62" t="str">
         <f>IF('[1]01 - Terms'!B99="","","|**"&amp;'[1]01 - Terms'!B99&amp;"**|"&amp;'[1]01 - Terms'!C99&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="109" spans="3:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C109" s="62" t="str">
         <f>IF('[1]01 - Terms'!B100="","","|**"&amp;'[1]01 - Terms'!B100&amp;"**|"&amp;'[1]01 - Terms'!C100&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="110" spans="3:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C110" s="62" t="str">
         <f>IF('[1]01 - Terms'!B101="","","|**"&amp;'[1]01 - Terms'!B101&amp;"**|"&amp;'[1]01 - Terms'!C101&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|"&amp;'[1]01 - Terms'!#REF!&amp;"|")</f>
         <v/>
       </c>
     </row>
+    <row r="111" spans="3:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="C111" s="61" t="str">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E109="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E109&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F109&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G109&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H109&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="3:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="C112" s="61" t="str">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E110="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E110&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F110&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G110&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H110&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="3:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="C113" s="61" t="str">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E111="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E111&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F111&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G111&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H111&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="3:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="C114" s="61" t="str">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E112="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E112&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F112&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G112&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H112&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="3:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="C115" s="61" t="str">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E113="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E113&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F113&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G113&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H113&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="3:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="C116" s="61" t="str">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E114="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E114&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F114&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G114&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H114&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="3:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="C117" s="61" t="str">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E115="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E115&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F115&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G115&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H115&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="3:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="C118" s="61" t="str">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E116="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E116&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F116&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G116&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H116&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="3:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="C119" s="61" t="str">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E117="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E117&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F117&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G117&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H117&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="3:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="C120" s="61" t="str">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E118="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E118&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F118&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G118&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H118&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="3:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="C121" s="61" t="str">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E119="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E119&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F119&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G119&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H119&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="3:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="C122" s="61" t="str">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E120="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E120&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F120&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G120&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H120&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="3:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="C123" s="61" t="str">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E121="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E121&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F121&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G121&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H121&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="3:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="C124" s="61" t="str">
+        <f>IF( '02-NONFUNCTIONALREQUIREMENTS'!E122="","","|**"&amp;'02-NONFUNCTIONALREQUIREMENTS'!E122&amp;"**|The SYSTEM shall "&amp;'02-NONFUNCTIONALREQUIREMENTS'!F122&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!G122&amp;"|"&amp;'02-NONFUNCTIONALREQUIREMENTS'!H122&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B5:B110" xr:uid="{A55E5BA5-AC83-0648-9D01-2CBE479B329D}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Usability"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B5:B124" xr:uid="{A55E5BA5-AC83-0648-9D01-2CBE479B329D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>